--- a/validations/flangesegments.PolynomialLFlangeSegment/Case_4_D4600_L_Tilt-0p00deg_ShapeFactor-1p00_Fv910kN_ShellStiff-Interp.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/Case_4_D4600_L_Tilt-0p00deg_ShapeFactor-1p00_Fv910kN_ShellStiff-Interp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29041401-3C91-46C4-8C27-0D24D9A9721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EF18A-2991-4E7C-94AA-272849D586D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8700" windowWidth="29040" windowHeight="18240" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
@@ -158,6 +158,10 @@
     <definedName name="E_mod" localSheetId="1">PyFlange_Gap30deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="2">PyFlange_Gap60deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="3">PyFlange_Gap90deg!$J$43</definedName>
+    <definedName name="fatigue.damage" localSheetId="4">PyFlange_Gap120deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="1">PyFlange_Gap30deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="2">PyFlange_Gap60deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="3">PyFlange_Gap90deg!$J$169</definedName>
     <definedName name="ffff" localSheetId="5">#REF!</definedName>
     <definedName name="ffff">#REF!</definedName>
     <definedName name="fffff" localSheetId="5">#REF!</definedName>
@@ -251,6 +255,7 @@
     <definedName name="k_seg" localSheetId="1">PyFlange_Gap30deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="2">PyFlange_Gap60deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="3">PyFlange_Gap90deg!$J$142</definedName>
+    <definedName name="markov_matrix" localSheetId="5">SGRE!$U$16:$W$1216</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="4">PyFlange_Gap120deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="1">PyFlange_Gap30deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="2">PyFlange_Gap60deg!$I$120</definedName>
@@ -331,10 +336,10 @@
     <definedName name="polynomial_initial_slope" localSheetId="1">PyFlange_Gap30deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="2">PyFlange_Gap60deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="3">PyFlange_Gap90deg!$J$152</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$178</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PyFlange_Gap30deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$178</definedName>
     <definedName name="query">#N/A</definedName>
     <definedName name="Radius" localSheetId="4">PyFlange_Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">PyFlange_Gap30deg!$J$41</definedName>
@@ -495,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="416">
   <si>
     <t>A</t>
   </si>
@@ -4473,6 +4478,15 @@
   <si>
     <t>Design value capped to 90% Fp,C*: Yes</t>
   </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Cumulated damage:</t>
+  </si>
+  <si>
+    <t>D =</t>
+  </si>
 </sst>
 </file>
 
@@ -5405,7 +5419,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5899,6 +5913,27 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5917,77 +5952,17 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -6025,7 +6000,14 @@
     <cellStyle name="Standard 5" xfId="21" xr:uid="{1FF9B1AA-B2DF-48C0-8E34-616BD6B6E94E}"/>
     <cellStyle name="Standard 6" xfId="22" xr:uid="{89D0DB1A-94A2-40B8-AB5A-43E64C1F178C}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -20161,7 +20143,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20318,7 +20300,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20646,7 +20628,7 @@
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -20673,12 +20655,12 @@
       <c r="B2" s="156"/>
       <c r="D2" s="157"/>
       <c r="E2" s="160">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F2" s="155"/>
       <c r="G2" s="163">
         <f ca="1">MAX(MAX(G5:G114),ABS(MIN(G5:G114)))</f>
-        <v>2.5279049729804069E-2</v>
+        <v>1.2388323771835215</v>
       </c>
       <c r="V2" s="158">
         <v>30</v>
@@ -20694,11 +20676,11 @@
       </c>
       <c r="Z2" s="158">
         <f>MATCH(gap_angle,V2:Y2,0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="159" t="str">
         <f>"PyFlange_Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>PyFlange_Gap30deg</v>
+        <v>PyFlange_Gap120deg</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -21219,11 +21201,11 @@
       </c>
       <c r="E26" s="107" cm="1">
         <f t="array" ref="E26">INDEX(SGRE!L48:O48,case_number)</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F26" s="110" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>29.999999999999996</v>
+        <v>119.99999999999999</v>
       </c>
       <c r="G26" s="118">
         <f t="shared" ref="G26:G31" ca="1" si="0">(F26-E26)/E26</f>
@@ -21240,11 +21222,11 @@
       </c>
       <c r="E27" s="107" cm="1">
         <f t="array" ref="E27">INDEX(SGRE!L49:O49,case_number)</f>
-        <v>1.2042771838760873</v>
+        <v>4.8171087355043491</v>
       </c>
       <c r="F27" s="109" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>1.2042771838760875</v>
+        <v>4.81710873550435</v>
       </c>
       <c r="G27" s="118">
         <f t="shared" ca="1" si="0"/>
@@ -21309,15 +21291,15 @@
       </c>
       <c r="E30" s="107" cm="1">
         <f t="array" ref="E30">INDEX(SGRE!L52:O52,case_number)</f>
-        <v>0.25543636477371356</v>
+        <v>1.6365395665793787</v>
       </c>
       <c r="F30" s="109" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>0.25543636477371395</v>
+        <v>1.6365395665793778</v>
       </c>
       <c r="G30" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5212323388764126E-15</v>
+        <v>-5.4271735180626019E-16</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.6">
@@ -21333,15 +21315,15 @@
       </c>
       <c r="E31" s="107" cm="1">
         <f t="array" ref="E31">INDEX(SGRE!L53:O53,case_number)</f>
-        <v>1.2162355202035975</v>
+        <v>0.44426272750754409</v>
       </c>
       <c r="F31" s="109" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>1.2162355202035973</v>
+        <v>0.44426272750754386</v>
       </c>
       <c r="G31" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.825671107581705E-16</v>
+        <v>-4.9980471278959754E-16</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.6">
@@ -21412,7 +21394,7 @@
       <c r="D35" s="103"/>
       <c r="E35" s="107" cm="1">
         <f t="array" ref="E35">INDEX(SGRE!L57:O57,case_number)</f>
-        <v>0.95286282352314688</v>
+        <v>0.42441366570439232</v>
       </c>
       <c r="F35" s="109" t="s">
         <v>84</v>
@@ -21430,7 +21412,7 @@
       <c r="D36" s="103"/>
       <c r="E36" s="107" cm="1">
         <f t="array" ref="E36">INDEX(SGRE!L58:O58,case_number)</f>
-        <v>-1.818755742136632</v>
+        <v>0.40252051240999598</v>
       </c>
       <c r="F36" s="109" t="s">
         <v>84</v>
@@ -21448,7 +21430,7 @@
       <c r="D37" s="103"/>
       <c r="E37" s="107" cm="1">
         <f t="array" ref="E37">INDEX(SGRE!L59:O59,case_number)</f>
-        <v>-0.25139168372340781</v>
+        <v>1.100638551127151</v>
       </c>
       <c r="F37" s="113" t="s">
         <v>84</v>
@@ -21468,15 +21450,15 @@
       </c>
       <c r="E38" s="107" cm="1">
         <f t="array" ref="E38">INDEX(SGRE!L60:O60,case_number)</f>
-        <v>0.77768332816019681</v>
+        <v>3.0060257869038067</v>
       </c>
       <c r="F38" s="109" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.77768332816019836</v>
+        <v>3.0060257869038054</v>
       </c>
       <c r="G38" s="118">
         <f t="shared" ref="G38:G39" ca="1" si="1">(F38-E38)/E38</f>
-        <v>1.9986441501225583E-15</v>
+        <v>-4.4319900226884533E-16</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.6">
@@ -21489,15 +21471,15 @@
       </c>
       <c r="E39" s="107" cm="1">
         <f t="array" ref="E39">INDEX(SGRE!L61:O61,case_number)</f>
-        <v>0.77768332816019681</v>
+        <v>3.0060257869038067</v>
       </c>
       <c r="F39" s="109" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>0.77768332816019836</v>
+        <v>3.0060257869038054</v>
       </c>
       <c r="G39" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9986441501225583E-15</v>
+        <v>-4.4319900226884533E-16</v>
       </c>
       <c r="H39" t="s">
         <v>162</v>
@@ -21629,15 +21611,15 @@
       </c>
       <c r="E47" s="107" cm="1">
         <f t="array" ref="E47">INDEX(SGRE!L69:O69,case_number)</f>
-        <v>607.8536313595099</v>
+        <v>649.20178034457842</v>
       </c>
       <c r="F47" s="108" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(sheet_name&amp;"!Point2.Z")</f>
-        <v>610.95092509667381</v>
+        <v>649.48496517658157</v>
       </c>
       <c r="G47" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0954597906021897E-3</v>
+        <v>4.3620464480679231E-4</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.6">
@@ -21671,15 +21653,15 @@
       </c>
       <c r="E49" s="107" cm="1">
         <f t="array" ref="E49">INDEX(SGRE!L71:O71,case_number)</f>
-        <v>45.345552163714615</v>
+        <v>37.924356930294898</v>
       </c>
       <c r="F49" s="107" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>45.20622021000969</v>
+        <v>37.921480602405474</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0726707925373587E-3</v>
+        <v>-7.5843814430691655E-5</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.6">
@@ -21692,15 +21674,15 @@
       </c>
       <c r="E50" s="107" cm="1">
         <f t="array" ref="E50">INDEX(SGRE!L72:O72,case_number)</f>
-        <v>915.80501393106135</v>
+        <v>912.28708527513402</v>
       </c>
       <c r="F50" s="107" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>915.69780505518179</v>
+        <v>912.28003238973588</v>
       </c>
       <c r="G50" s="118">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.1706517681026228E-4</v>
+        <v>-7.7309933594111806E-6</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.6">
@@ -21711,7 +21693,7 @@
       <c r="D51" s="103"/>
       <c r="E51" s="107" cm="1">
         <f t="array" ref="E51">INDEX(SGRE!L73:O73,case_number)</f>
-        <v>27089550.274536062</v>
+        <v>28264325.559781257</v>
       </c>
       <c r="F51" s="110" t="s">
         <v>84</v>
@@ -21726,7 +21708,7 @@
       <c r="D52" s="103"/>
       <c r="E52" s="107" cm="1">
         <f t="array" ref="E52">INDEX(SGRE!L74:O74,case_number)</f>
-        <v>13469.154871512397</v>
+        <v>13930.678382460761</v>
       </c>
       <c r="F52" s="111" t="s">
         <v>84</v>
@@ -21741,7 +21723,7 @@
       <c r="D53" s="103"/>
       <c r="E53" s="107" cm="1">
         <f t="array" ref="E53">INDEX(SGRE!L75:O75,case_number)</f>
-        <v>1878458.9697468264</v>
+        <v>841291.0195003096</v>
       </c>
       <c r="F53" s="111" t="s">
         <v>84</v>
@@ -21756,15 +21738,15 @@
       <c r="D54" s="103"/>
       <c r="E54" s="137" cm="1">
         <f t="array" ref="E54">INDEX(SGRE!L76:O76,case_number)</f>
-        <v>4.9720850789366122E-4</v>
+        <v>4.9287142383766731E-4</v>
       </c>
       <c r="F54" s="137" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>4.935826403955414E-4</v>
+        <v>4.9257983768492754E-4</v>
       </c>
       <c r="G54" s="118">
         <f t="shared" ref="G54:G56" ca="1" si="4">(F54-E54)/E54</f>
-        <v>-7.2924486217667405E-3</v>
+        <v>-5.9160693567781404E-4</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.6">
@@ -21775,15 +21757,15 @@
       <c r="D55" s="103"/>
       <c r="E55" s="137" cm="1">
         <f t="array" ref="E55">INDEX(SGRE!L77:O77,case_number)</f>
-        <v>6.9342567547625966E-2</v>
+        <v>2.9765119203743723E-2</v>
       </c>
       <c r="F55" s="137" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>6.8185729516111238E-2</v>
+        <v>2.9666599379348665E-2</v>
       </c>
       <c r="G55" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.6682941985385634E-2</v>
+        <v>-3.3099086121807326E-3</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="14.4">
@@ -21794,15 +21776,15 @@
       <c r="D56" s="103"/>
       <c r="E56" s="107" cm="1">
         <f t="array" ref="E56">INDEX(SGRE!L78:O78,case_number)</f>
-        <v>911.63826728603794</v>
+        <v>910.4493865695764</v>
       </c>
       <c r="F56" s="107" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>911.60669930979884</v>
+        <v>910.44668215179649</v>
       </c>
       <c r="G56" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.4627743669735553E-5</v>
+        <v>-2.9704207831910564E-6</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.6">
@@ -21818,15 +21800,15 @@
       </c>
       <c r="E57" s="107" cm="1">
         <f t="array" ref="E57">INDEX(SGRE!L79:O79,case_number)</f>
-        <v>243.87636574071416</v>
+        <v>106.55984829208059</v>
       </c>
       <c r="F57" s="107" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>239.81498850713882</v>
+        <v>106.23569135594848</v>
       </c>
       <c r="G57" s="118">
         <f ca="1">(F57-E57)/E57</f>
-        <v>-1.6653426916708035E-2</v>
+        <v>-3.0420176204042477E-3</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.6" hidden="1">
@@ -21922,15 +21904,15 @@
       </c>
       <c r="E62" s="107" cm="1">
         <f t="array" ref="E62">INDEX(SGRE!L84:O84,case_number)</f>
-        <v>6290.618398144642</v>
+        <v>711.09447891656316</v>
       </c>
       <c r="F62" s="111" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>6185.8580443902283</v>
+        <v>708.93131698192713</v>
       </c>
       <c r="G62" s="118">
         <f ca="1">(F62-E62)/E62</f>
-        <v>-1.6653426916710092E-2</v>
+        <v>-3.0420176204037901E-3</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15.6">
@@ -21943,11 +21925,11 @@
       </c>
       <c r="E63" s="109" cm="1">
         <f t="array" ref="E63">INDEX(SGRE!L85:O85,case_number)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" s="109" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness_correction_factor")</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G63" s="118"/>
     </row>
@@ -21964,7 +21946,7 @@
       </c>
       <c r="E64" s="107" cm="1">
         <f t="array" ref="E64">INDEX(SGRE!L86:O86,case_number)</f>
-        <v>2762.8420208404168</v>
+        <v>278.26526530530617</v>
       </c>
       <c r="F64" s="111" t="s">
         <v>84</v>
@@ -21986,7 +21968,7 @@
       </c>
       <c r="E65" s="107" cm="1">
         <f t="array" ref="E65">INDEX(SGRE!L87:O87,case_number)</f>
-        <v>2873.9789957155294</v>
+        <v>386.82104021159915</v>
       </c>
       <c r="F65" s="111" t="s">
         <v>84</v>
@@ -22008,15 +21990,15 @@
       </c>
       <c r="E66" s="107" cm="1">
         <f t="array" ref="E66">INDEX(SGRE!L88:O88,case_number)</f>
-        <v>2762.8420208404168</v>
+        <v>278.26526530530617</v>
       </c>
       <c r="F66" s="111" cm="1">
         <f t="array" aca="1" ref="F66" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>2692.9999999999995</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="G66" s="118">
         <f ca="1">(F66-E66)/E66</f>
-        <v>-2.5279049729804069E-2</v>
+        <v>-3.1094980696093938E-3</v>
       </c>
       <c r="H66" t="s">
         <v>148</v>
@@ -22035,11 +22017,11 @@
       </c>
       <c r="E67" s="109" cm="1">
         <f t="array" ref="E67">INDEX(SGRE!L89:O89,case_number)</f>
-        <v>1.8202477434344697</v>
+        <v>3.3809909737378794</v>
       </c>
       <c r="F67" s="109" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>1.8202477434344697</v>
+        <v>3.3809909737378794</v>
       </c>
       <c r="G67" s="118">
         <f ca="1">(F67-E67)/E67</f>
@@ -22059,15 +22041,15 @@
       </c>
       <c r="E68" s="107" cm="1">
         <f t="array" ref="E68">INDEX(SGRE!L90:O90,case_number)</f>
-        <v>1430.9035779226776</v>
+        <v>6.1725262613190992</v>
       </c>
       <c r="F68" s="107" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>1430.9053629268196</v>
+        <v>6.1725267927708671</v>
       </c>
       <c r="G68" s="118">
         <f ca="1">(F68-E68)/E68</f>
-        <v>1.2474664048186463E-6</v>
+        <v>8.6099555583439335E-8</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15.6">
@@ -22083,7 +22065,7 @@
       </c>
       <c r="E69" s="107" cm="1">
         <f t="array" ref="E69">INDEX(SGRE!L91:O91,case_number)</f>
-        <v>113.37858601103791</v>
+        <v>128.55266922335946</v>
       </c>
       <c r="F69" s="110" t="s">
         <v>84</v>
@@ -22106,7 +22088,7 @@
       </c>
       <c r="E70" s="107" cm="1">
         <f t="array" ref="E70">INDEX(SGRE!L92:O92,case_number)</f>
-        <v>144.694544425494</v>
+        <v>42.269482742323625</v>
       </c>
       <c r="F70" s="110" t="s">
         <v>84</v>
@@ -22154,11 +22136,11 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(SGRE!L94:O94,case_number)</f>
-        <v>243.87636574071416</v>
+        <v>106.55984829208059</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap_tot")</f>
-        <v>239.81498850713882</v>
+        <v>106.23569135594848</v>
       </c>
       <c r="G72" s="107"/>
     </row>
@@ -22245,15 +22227,15 @@
       </c>
       <c r="E76" s="107" cm="1">
         <f t="array" ref="E76">INDEX(SGRE!L98:O98,case_number)</f>
-        <v>1.2262664773048815</v>
+        <v>1.0255772696087966</v>
       </c>
       <c r="F76" s="109" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>1.2224985641161992</v>
+        <v>1.0254994859166759</v>
       </c>
       <c r="G76" s="118">
         <f ca="1">(F76-E76)/E76</f>
-        <v>-3.0726707925372923E-3</v>
+        <v>-7.5843814430780898E-5</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -22417,15 +22399,15 @@
       </c>
       <c r="E85" s="107" cm="1">
         <f t="array" ref="E85">INDEX(SGRE!L107:O107,case_number)</f>
-        <v>-274.01525462960308</v>
+        <v>-136.69873718096949</v>
       </c>
       <c r="F85" s="107" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(sheet_name&amp;"!point4.Z")</f>
-        <v>-269.95398850713877</v>
+        <v>-136.37469135594847</v>
       </c>
       <c r="G85" s="118">
         <f ca="1">(F85-E85)/E85</f>
-        <v>-1.4821313973756944E-2</v>
+        <v>-2.3705107428463414E-3</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.6">
@@ -22441,15 +22423,15 @@
       </c>
       <c r="E86" s="107" cm="1">
         <f t="array" ref="E86">INDEX(SGRE!L108:O108,case_number)</f>
-        <v>3.9421664449718612E-2</v>
+        <v>1.0521218655412518E-4</v>
       </c>
       <c r="F86" s="113" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>3.8433555118348797E-2</v>
+        <v>-2.512807662339786E-5</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>-2.5065134746660032E-2</v>
+        <v>-1.2388323771835215</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="15.6">
@@ -22465,15 +22447,15 @@
       </c>
       <c r="E87" s="107" cm="1">
         <f t="array" ref="E87">INDEX(SGRE!L109:O109,case_number)</f>
-        <v>905.19299387127637</v>
+        <v>909.99439430268114</v>
       </c>
       <c r="F87" s="108" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>905.39152871050237</v>
+        <v>910.00133474929635</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>2.1932874046772853E-4</v>
+        <v>7.6269113949015525E-6</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15.6">
@@ -22489,11 +22471,11 @@
       </c>
       <c r="E88" s="107" cm="1">
         <f t="array" ref="E88">INDEX(SGRE!L110:O110,case_number)</f>
-        <v>7.6903449904542856E-2</v>
+        <v>3.3602353922554021E-2</v>
       </c>
       <c r="F88" s="110" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!polynomial_initial_slope")</f>
-        <v>7.5622647850791105E-2</v>
+        <v>3.3500092411267585E-2</v>
       </c>
       <c r="G88" s="104"/>
       <c r="H88" t="s">
@@ -22513,7 +22495,7 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(SGRE!L111:O111,case_number)</f>
-        <v>7.6903449904542856E-2</v>
+        <v>3.3602353922554021E-2</v>
       </c>
       <c r="F89" s="104"/>
       <c r="G89" s="104"/>
@@ -22654,15 +22636,15 @@
       </c>
       <c r="E96" s="107" cm="1">
         <f t="array" ref="E96">INDEX(SGRE!L118:O118,case_number)</f>
-        <v>0.20185922082271704</v>
+        <v>0.13408481226820065</v>
       </c>
       <c r="F96" s="113" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.19994979253303075</v>
+        <v>0.13379717173716899</v>
       </c>
       <c r="G96" s="118">
         <f ca="1">(F96-E96)/E96</f>
-        <v>-9.4592076691074212E-3</v>
+        <v>-2.1452133628402383E-3</v>
       </c>
       <c r="H96" t="s">
         <v>305</v>
@@ -22677,7 +22659,7 @@
       </c>
       <c r="E97" s="107" cm="1">
         <f t="array" ref="E97">INDEX(SGRE!L119:O119,case_number)</f>
-        <v>0.11516079668755733</v>
+        <v>4.1952313368957508E-2</v>
       </c>
       <c r="F97" s="109" t="s">
         <v>84</v>
@@ -22702,15 +22684,15 @@
       </c>
       <c r="E98" s="107" cm="1">
         <f t="array" ref="E98">INDEX(SGRE!L120:O120,case_number)</f>
-        <v>-27.98809240828421</v>
+        <v>-11.177963008326927</v>
       </c>
       <c r="F98" s="108" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-27.359622830222719</v>
+        <v>-11.141257927286846</v>
       </c>
       <c r="G98" s="118">
         <f ca="1">(F98-E98)/E98</f>
-        <v>-2.2454891490763768E-2</v>
+        <v>-3.2837003497629864E-3</v>
       </c>
       <c r="H98" t="s">
         <v>305</v>
@@ -22725,7 +22707,7 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(SGRE!L121:O121,case_number)</f>
-        <v>-17.361246158564047</v>
+        <v>-3.99354947590454</v>
       </c>
       <c r="F99" s="109" t="s">
         <v>84</v>
@@ -22814,7 +22796,7 @@
       </c>
       <c r="E102" s="107" cm="1">
         <f t="array" ref="E102">INDEX(SGRE!L124:O124,case_number)</f>
-        <v>-13.793206222084164</v>
+        <v>-14.459238217697784</v>
       </c>
       <c r="F102" s="109" t="s">
         <v>84</v>
@@ -22848,7 +22830,7 @@
       </c>
       <c r="E103" s="107" cm="1">
         <f t="array" ref="E103">INDEX(SGRE!L125:O125,case_number)</f>
-        <v>-3.3187478725806674</v>
+        <v>-1.7583334018555716</v>
       </c>
       <c r="F103" s="109" t="s">
         <v>84</v>
@@ -22882,7 +22864,7 @@
       </c>
       <c r="E104" s="107" cm="1">
         <f t="array" ref="E104">INDEX(SGRE!L126:O126,case_number)</f>
-        <v>2.4508070692032535E-3</v>
+        <v>6.5409407282147871E-6</v>
       </c>
       <c r="F104" s="109" t="s">
         <v>84</v>
@@ -22916,7 +22898,7 @@
       </c>
       <c r="E105" s="107" cm="1">
         <f t="array" ref="E105">INDEX(SGRE!L127:O127,case_number)</f>
-        <v>-13.747440745218261</v>
+        <v>-14.411262865086067</v>
       </c>
       <c r="F105" s="109" t="s">
         <v>84</v>
@@ -22950,7 +22932,7 @@
       </c>
       <c r="E106" s="107" cm="1">
         <f t="array" ref="E106">INDEX(SGRE!L128:O128,case_number)</f>
-        <v>-3.3072317929119115</v>
+        <v>-1.7541381705186758</v>
       </c>
       <c r="F106" s="109" t="s">
         <v>84</v>
@@ -22968,7 +22950,7 @@
       </c>
       <c r="E107" s="107" cm="1">
         <f t="array" ref="E107">INDEX(SGRE!L129:O129,case_number)</f>
-        <v>-3.3737458255359489</v>
+        <v>-4.0339343815411448</v>
       </c>
       <c r="F107" s="109" t="s">
         <v>84</v>
@@ -22986,7 +22968,7 @@
       </c>
       <c r="E108" s="107" cm="1">
         <f t="array" ref="E108">INDEX(SGRE!L130:O130,case_number)</f>
-        <v>586.96166557122535</v>
+        <v>605.81085848766156</v>
       </c>
       <c r="F108" s="109" t="s">
         <v>84</v>
@@ -23004,7 +22986,7 @@
       </c>
       <c r="E109" s="107" cm="1">
         <f t="array" ref="E109">INDEX(SGRE!L131:O131,case_number)</f>
-        <v>18.316987621897358</v>
+        <v>10.292730627851538</v>
       </c>
       <c r="F109" s="109" t="s">
         <v>84</v>
@@ -23022,7 +23004,7 @@
       </c>
       <c r="E110" s="107" cm="1">
         <f t="array" ref="E110">INDEX(SGRE!L132:O132,case_number)</f>
-        <v>1.1341130640163486E-3</v>
+        <v>1.1242203457511812E-3</v>
       </c>
       <c r="F110" s="109" t="s">
         <v>84</v>
@@ -23040,7 +23022,7 @@
       </c>
       <c r="E111" s="107" cm="1">
         <f t="array" ref="E111">INDEX(SGRE!L133:O133,case_number)</f>
-        <v>0.27010762476548178</v>
+        <v>0.20173789440913817</v>
       </c>
       <c r="F111" s="109" t="s">
         <v>84</v>
@@ -23058,7 +23040,7 @@
       </c>
       <c r="E112" s="107" cm="1">
         <f t="array" ref="E112">INDEX(SGRE!L134:O134,case_number)</f>
-        <v>3.7368232883165717</v>
+        <v>1.025033102327626</v>
       </c>
       <c r="F112" s="109" t="s">
         <v>84</v>
@@ -23077,13 +23059,15 @@
       <c r="D114" s="146"/>
       <c r="E114" s="107" cm="1">
         <f t="array" ref="E114">INDEX(SGRE!L136:O136,case_number)</f>
-        <v>0.39069004982520333</v>
-      </c>
-      <c r="F114" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="G114" s="109" t="s">
-        <v>84</v>
+        <v>0.20429410419425867</v>
+      </c>
+      <c r="F114" s="109" cm="1">
+        <f t="array" aca="1" ref="F114" ca="1">INDIRECT(sheet_name&amp;"!fatigue.damage")</f>
+        <v>0.20335934292146626</v>
+      </c>
+      <c r="G114" s="118">
+        <f ca="1">(F114-E114)/E114</f>
+        <v>-4.5755665660501023E-3</v>
       </c>
       <c r="H114" t="s">
         <v>340</v>
@@ -23091,97 +23075,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2 G76:G80">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
     <cfRule type="cellIs" dxfId="26" priority="19" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
+  <conditionalFormatting sqref="G26:G31">
     <cfRule type="cellIs" dxfId="25" priority="18" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G31">
+  <conditionalFormatting sqref="G38:G39">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G39">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="notBetween">
+  <conditionalFormatting sqref="G45:G50">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G50">
+  <conditionalFormatting sqref="G54:G57">
     <cfRule type="cellIs" dxfId="22" priority="5" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G57">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="notBetween">
+  <conditionalFormatting sqref="G59:G63">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G63">
+  <conditionalFormatting sqref="G65:G68">
     <cfRule type="cellIs" dxfId="20" priority="14" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G68">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85:G87">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G87">
+  <conditionalFormatting sqref="G91:G92">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G92">
+  <conditionalFormatting sqref="G96">
     <cfRule type="cellIs" dxfId="14" priority="8" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="13" priority="7" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="notBetween">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
@@ -23205,8 +23195,8 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -23251,32 +23241,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -23292,12 +23282,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -23305,12 +23295,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -23318,12 +23308,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -23331,12 +23321,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="177"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -23344,12 +23334,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -23397,112 +23387,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="180" t="s">
+      <c r="C13" s="185"/>
+      <c r="D13" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="180" t="s">
+      <c r="C14" s="185"/>
+      <c r="D14" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="180" t="s">
+      <c r="C15" s="185"/>
+      <c r="D15" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="180" t="str">
+      <c r="C16" s="185"/>
+      <c r="D16" s="187" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="184" t="s">
+      <c r="C17" s="185"/>
+      <c r="D17" s="188" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179">
+      <c r="C18" s="185"/>
+      <c r="D18" s="186">
         <v>45432</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -23690,16 +23680,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27520,31 +27510,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="191" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>A.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="190">
+        <v>0.37445631630268394</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -27652,6 +27657,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:G4"/>
@@ -27668,25 +27677,21 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -27709,11 +27714,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -27758,32 +27763,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -27799,12 +27804,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -27812,12 +27817,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -27825,12 +27830,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -27838,12 +27843,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="177"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -27851,12 +27856,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -27904,117 +27909,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="180" t="str">
+      <c r="C13" s="185"/>
+      <c r="D13" s="187" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="180" t="str">
+      <c r="C14" s="185"/>
+      <c r="D14" s="187" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="180" t="str">
+      <c r="C15" s="185"/>
+      <c r="D15" s="187" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="180" t="str">
+      <c r="C16" s="185"/>
+      <c r="D16" s="187" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="180" t="str">
+      <c r="C17" s="185"/>
+      <c r="D17" s="187" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179">
+      <c r="C18" s="185"/>
+      <c r="D18" s="186">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -28202,16 +28207,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -32005,31 +32010,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="191" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>B.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="190">
+        <v>0.25904385142041386</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -32098,52 +32118,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -32157,21 +32198,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -32194,11 +32242,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -32243,32 +32291,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -32284,12 +32332,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -32297,12 +32345,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -32310,12 +32358,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -32323,12 +32371,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="177"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -32336,12 +32384,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -32389,117 +32437,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="180" t="str">
+      <c r="C13" s="185"/>
+      <c r="D13" s="187" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="180" t="str">
+      <c r="C14" s="185"/>
+      <c r="D14" s="187" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="180" t="str">
+      <c r="C15" s="185"/>
+      <c r="D15" s="187" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="180" t="str">
+      <c r="C16" s="185"/>
+      <c r="D16" s="187" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="180" t="str">
+      <c r="C17" s="185"/>
+      <c r="D17" s="187" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179">
+      <c r="C18" s="185"/>
+      <c r="D18" s="186">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -32687,16 +32735,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36490,31 +36538,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="191" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>C.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="190">
+        <v>0.27301512928975008</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -36583,52 +36646,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -36642,21 +36726,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -36679,11 +36770,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -36728,32 +36819,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -36769,12 +36860,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -36782,12 +36873,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -36795,12 +36886,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="177"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -36808,12 +36899,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="177"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -36821,12 +36912,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -36874,117 +36965,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="180" t="str">
+      <c r="C13" s="185"/>
+      <c r="D13" s="187" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="180" t="str">
+      <c r="C14" s="185"/>
+      <c r="D14" s="187" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="185" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="180" t="str">
+      <c r="C15" s="185"/>
+      <c r="D15" s="187" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="180" t="str">
+      <c r="C16" s="185"/>
+      <c r="D16" s="187" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="180" t="str">
+      <c r="C17" s="185"/>
+      <c r="D17" s="187" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179">
+      <c r="C18" s="185"/>
+      <c r="D18" s="186">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -37172,16 +37263,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -40975,31 +41066,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="191" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>D.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="190">
+        <v>0.20335934292146626</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>84</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -41068,52 +41174,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -41127,21 +41254,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -41165,9 +41299,9 @@
   </sheetPr>
   <dimension ref="A1:AM1048558"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="26" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16:W1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -42025,7 +42159,7 @@
       <c r="F27" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="202"/>
+      <c r="G27" s="103"/>
       <c r="I27" s="106">
         <f>B27</f>
         <v>23</v>
@@ -42033,10 +42167,10 @@
       <c r="J27" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
       <c r="P27" t="str">
         <f t="shared" ref="P27:P66" si="2">IF(F27&lt;&gt;"",F27,"")</f>
         <v>Simplified formula used, therefore not evaluated</v>
@@ -42069,7 +42203,7 @@
       <c r="F28" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="203"/>
+      <c r="G28" s="105"/>
       <c r="I28" s="106">
         <f>I27+1</f>
         <v>24</v>
@@ -42080,16 +42214,16 @@
       <c r="K28" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="192">
+      <c r="L28" s="107">
         <v>47.288017719282664</v>
       </c>
-      <c r="M28" s="192">
+      <c r="M28" s="107">
         <v>47.288017719282664</v>
       </c>
-      <c r="N28" s="192">
+      <c r="N28" s="107">
         <v>47.288017719282664</v>
       </c>
-      <c r="O28" s="192">
+      <c r="O28" s="107">
         <v>47.288017719282664</v>
       </c>
       <c r="P28" t="str">
@@ -42120,7 +42254,7 @@
       <c r="F29" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="203"/>
+      <c r="G29" s="105"/>
       <c r="I29" s="106"/>
       <c r="J29" s="105" t="s">
         <v>204</v>
@@ -42128,16 +42262,16 @@
       <c r="K29" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="L29" s="192">
+      <c r="L29" s="107">
         <v>900</v>
       </c>
-      <c r="M29" s="192">
+      <c r="M29" s="107">
         <v>900</v>
       </c>
-      <c r="N29" s="192">
+      <c r="N29" s="107">
         <v>900</v>
       </c>
-      <c r="O29" s="192">
+      <c r="O29" s="107">
         <v>900</v>
       </c>
       <c r="P29" t="str">
@@ -42168,7 +42302,7 @@
       <c r="F30" t="s">
         <v>329</v>
       </c>
-      <c r="G30" s="203"/>
+      <c r="G30" s="105"/>
       <c r="I30" s="106"/>
       <c r="J30" s="105" t="s">
         <v>201</v>
@@ -42176,16 +42310,16 @@
       <c r="K30" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="L30" s="192">
+      <c r="L30" s="107">
         <v>1473.1579837133568</v>
       </c>
-      <c r="M30" s="192">
+      <c r="M30" s="107">
         <v>1473.1579837133568</v>
       </c>
-      <c r="N30" s="192">
+      <c r="N30" s="107">
         <v>1473.1579837133568</v>
       </c>
-      <c r="O30" s="192">
+      <c r="O30" s="107">
         <v>1473.1579837133568</v>
       </c>
       <c r="P30" t="str">
@@ -42219,7 +42353,7 @@
       <c r="F31" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="202"/>
+      <c r="G31" s="103"/>
       <c r="I31" s="106">
         <f>I28+1</f>
         <v>25</v>
@@ -42230,16 +42364,16 @@
       <c r="K31" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="192">
+      <c r="L31" s="107">
         <v>910</v>
       </c>
-      <c r="M31" s="192">
+      <c r="M31" s="107">
         <v>910</v>
       </c>
-      <c r="N31" s="192">
+      <c r="N31" s="107">
         <v>910</v>
       </c>
-      <c r="O31" s="192">
+      <c r="O31" s="107">
         <v>910</v>
       </c>
       <c r="P31" t="str">
@@ -42270,7 +42404,7 @@
       <c r="F32" t="s">
         <v>330</v>
       </c>
-      <c r="G32" s="202"/>
+      <c r="G32" s="103"/>
       <c r="I32" s="106"/>
       <c r="J32" s="103" t="s">
         <v>199</v>
@@ -42278,16 +42412,16 @@
       <c r="K32" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="192">
+      <c r="L32" s="107">
         <v>1020.8984827133563</v>
       </c>
-      <c r="M32" s="192">
+      <c r="M32" s="107">
         <v>1020.8984827133563</v>
       </c>
-      <c r="N32" s="192">
+      <c r="N32" s="107">
         <v>1020.8984827133563</v>
       </c>
-      <c r="O32" s="192">
+      <c r="O32" s="107">
         <v>1020.8984827133563</v>
       </c>
       <c r="P32" t="str">
@@ -42318,7 +42452,7 @@
       <c r="F33" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="202"/>
+      <c r="G33" s="103"/>
       <c r="I33" s="106"/>
       <c r="J33" s="103" t="s">
         <v>198</v>
@@ -42326,16 +42460,16 @@
       <c r="K33" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="190">
+      <c r="L33" s="109">
         <v>0.1</v>
       </c>
-      <c r="M33" s="190">
+      <c r="M33" s="109">
         <v>0.1</v>
       </c>
-      <c r="N33" s="190">
+      <c r="N33" s="109">
         <v>0.1</v>
       </c>
-      <c r="O33" s="190">
+      <c r="O33" s="109">
         <v>0.1</v>
       </c>
       <c r="P33" t="str">
@@ -42367,7 +42501,7 @@
       <c r="F34" t="s">
         <v>332</v>
       </c>
-      <c r="G34" s="202"/>
+      <c r="G34" s="103"/>
       <c r="I34" s="106"/>
       <c r="J34" s="103" t="s">
         <v>197</v>
@@ -42375,16 +42509,16 @@
       <c r="K34" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="192">
+      <c r="L34" s="107">
         <v>945.76035438565327</v>
       </c>
-      <c r="M34" s="192">
+      <c r="M34" s="107">
         <v>945.76035438565327</v>
       </c>
-      <c r="N34" s="192">
+      <c r="N34" s="107">
         <v>945.76035438565327</v>
       </c>
-      <c r="O34" s="192">
+      <c r="O34" s="107">
         <v>945.76035438565327</v>
       </c>
       <c r="P34" t="str">
@@ -42418,7 +42552,7 @@
       <c r="F35" s="149" t="s">
         <v>412</v>
       </c>
-      <c r="G35" s="204"/>
+      <c r="G35" s="130"/>
       <c r="H35" s="132"/>
       <c r="I35" s="131">
         <f>I31+1</f>
@@ -42430,16 +42564,16 @@
       <c r="K35" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="L35" s="193">
+      <c r="L35" s="129">
         <v>808.99913815980972</v>
       </c>
-      <c r="M35" s="193">
+      <c r="M35" s="129">
         <v>808.99913815980972</v>
       </c>
-      <c r="N35" s="193">
+      <c r="N35" s="129">
         <v>808.99913815980972</v>
       </c>
-      <c r="O35" s="193">
+      <c r="O35" s="129">
         <v>808.99913815980972</v>
       </c>
       <c r="P35" t="str">
@@ -42467,7 +42601,7 @@
       <c r="E36" s="114">
         <v>9.1986306542215614E-10</v>
       </c>
-      <c r="G36" s="203"/>
+      <c r="G36" s="105"/>
       <c r="I36" s="106"/>
       <c r="J36" s="105" t="s">
         <v>193</v>
@@ -42475,16 +42609,16 @@
       <c r="K36" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="194">
+      <c r="L36" s="114">
         <v>9.1986306542215614E-10</v>
       </c>
-      <c r="M36" s="194">
+      <c r="M36" s="114">
         <v>9.1986306542215614E-10</v>
       </c>
-      <c r="N36" s="194">
+      <c r="N36" s="114">
         <v>9.1986306542215614E-10</v>
       </c>
-      <c r="O36" s="194">
+      <c r="O36" s="114">
         <v>9.1986306542215614E-10</v>
       </c>
       <c r="P36" t="str">
@@ -42513,7 +42647,7 @@
         <v>1.5408931721752862E-10</v>
       </c>
       <c r="F37" s="148"/>
-      <c r="G37" s="203"/>
+      <c r="G37" s="105"/>
       <c r="I37" s="106"/>
       <c r="J37" s="105" t="s">
         <v>192</v>
@@ -42521,16 +42655,16 @@
       <c r="K37" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="L37" s="194">
+      <c r="L37" s="114">
         <v>1.5408931721752862E-10</v>
       </c>
-      <c r="M37" s="194">
+      <c r="M37" s="114">
         <v>1.5408931721752862E-10</v>
       </c>
-      <c r="N37" s="194">
+      <c r="N37" s="114">
         <v>1.5408931721752862E-10</v>
       </c>
-      <c r="O37" s="194">
+      <c r="O37" s="114">
         <v>1.5408931721752862E-10</v>
       </c>
       <c r="P37" t="str">
@@ -42558,7 +42692,7 @@
       <c r="E38" s="109">
         <v>0.1284830227486351</v>
       </c>
-      <c r="G38" s="203"/>
+      <c r="G38" s="105"/>
       <c r="I38" s="106"/>
       <c r="J38" s="105" t="s">
         <v>191</v>
@@ -42566,16 +42700,16 @@
       <c r="K38" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="190">
+      <c r="L38" s="109">
         <v>0.14347872373893336</v>
       </c>
-      <c r="M38" s="190">
+      <c r="M38" s="109">
         <v>0.14347872373893336</v>
       </c>
-      <c r="N38" s="190">
+      <c r="N38" s="109">
         <v>0.14347872373893336</v>
       </c>
-      <c r="O38" s="190">
+      <c r="O38" s="109">
         <v>0.14347872373893336</v>
       </c>
       <c r="P38" t="str">
@@ -42606,7 +42740,7 @@
       <c r="E39" s="108">
         <v>89.473198506560863</v>
       </c>
-      <c r="G39" s="203"/>
+      <c r="G39" s="105"/>
       <c r="I39" s="106">
         <f>I35+1</f>
         <v>27</v>
@@ -42617,16 +42751,16 @@
       <c r="K39" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L39" s="189">
+      <c r="L39" s="108">
         <v>89.473198506560863</v>
       </c>
-      <c r="M39" s="189">
+      <c r="M39" s="108">
         <v>89.473198506560863</v>
       </c>
-      <c r="N39" s="189">
+      <c r="N39" s="108">
         <v>89.473198506560863</v>
       </c>
-      <c r="O39" s="189">
+      <c r="O39" s="108">
         <v>89.473198506560863</v>
       </c>
       <c r="P39" t="str">
@@ -42654,7 +42788,7 @@
       <c r="E40" s="107">
         <v>500</v>
       </c>
-      <c r="G40" s="203"/>
+      <c r="G40" s="105"/>
       <c r="I40" s="106"/>
       <c r="J40" s="105" t="s">
         <v>189</v>
@@ -42662,16 +42796,16 @@
       <c r="K40" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="L40" s="192">
+      <c r="L40" s="107">
         <v>500</v>
       </c>
-      <c r="M40" s="192">
+      <c r="M40" s="107">
         <v>500</v>
       </c>
-      <c r="N40" s="192">
+      <c r="N40" s="107">
         <v>500</v>
       </c>
-      <c r="O40" s="192">
+      <c r="O40" s="107">
         <v>500</v>
       </c>
       <c r="P40" t="str">
@@ -42705,7 +42839,7 @@
       <c r="F41" t="s">
         <v>333</v>
       </c>
-      <c r="G41" s="202"/>
+      <c r="G41" s="103"/>
       <c r="I41" s="106">
         <f>I39+1</f>
         <v>28</v>
@@ -42716,16 +42850,16 @@
       <c r="K41" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="L41" s="192">
+      <c r="L41" s="107">
         <v>96.08995471851452</v>
       </c>
-      <c r="M41" s="192">
+      <c r="M41" s="107">
         <v>96.08995471851452</v>
       </c>
-      <c r="N41" s="192">
+      <c r="N41" s="107">
         <v>96.08995471851452</v>
       </c>
-      <c r="O41" s="192">
+      <c r="O41" s="107">
         <v>96.08995471851452</v>
       </c>
       <c r="P41" t="str">
@@ -42756,7 +42890,7 @@
       <c r="E42" s="111">
         <v>1126.9658575407177</v>
       </c>
-      <c r="G42" s="202"/>
+      <c r="G42" s="103"/>
       <c r="I42" s="106">
         <f>I41+1</f>
         <v>29</v>
@@ -42767,16 +42901,16 @@
       <c r="K42" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L42" s="195">
+      <c r="L42" s="111">
         <v>1126.9658575407177</v>
       </c>
-      <c r="M42" s="195">
+      <c r="M42" s="111">
         <v>1126.9658575407177</v>
       </c>
-      <c r="N42" s="195">
+      <c r="N42" s="111">
         <v>1126.9658575407177</v>
       </c>
-      <c r="O42" s="195">
+      <c r="O42" s="111">
         <v>1126.9658575407177</v>
       </c>
       <c r="P42" t="str">
@@ -42811,7 +42945,7 @@
       <c r="F43" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="202"/>
+      <c r="G43" s="103"/>
       <c r="I43" s="106">
         <f>I42+1</f>
         <v>30</v>
@@ -42822,16 +42956,16 @@
       <c r="K43" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="192">
+      <c r="L43" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="M43" s="192">
+      <c r="M43" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="N43" s="192">
+      <c r="N43" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="O43" s="192">
+      <c r="O43" s="107">
         <v>65.673222412000001</v>
       </c>
       <c r="P43" t="str">
@@ -42862,7 +42996,7 @@
       <c r="E44" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="G44" s="202"/>
+      <c r="G44" s="103"/>
       <c r="I44" s="106">
         <f>I43+1</f>
         <v>31</v>
@@ -42873,16 +43007,16 @@
       <c r="K44" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="192">
+      <c r="L44" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="M44" s="192">
+      <c r="M44" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="N44" s="192">
+      <c r="N44" s="107">
         <v>65.673222412000001</v>
       </c>
-      <c r="O44" s="192">
+      <c r="O44" s="107">
         <v>65.673222412000001</v>
       </c>
       <c r="P44" t="str">
@@ -42913,7 +43047,7 @@
       <c r="E45" s="107">
         <v>-58.57360279409982</v>
       </c>
-      <c r="G45" s="202"/>
+      <c r="G45" s="103"/>
       <c r="I45" s="106">
         <f>I44+1</f>
         <v>32</v>
@@ -42924,16 +43058,16 @@
       <c r="K45" s="103" t="s">
         <v>181</v>
       </c>
-      <c r="L45" s="192">
+      <c r="L45" s="107">
         <v>-58.57360279409982</v>
       </c>
-      <c r="M45" s="192">
+      <c r="M45" s="107">
         <v>-58.57360279409982</v>
       </c>
-      <c r="N45" s="192">
+      <c r="N45" s="107">
         <v>-58.57360279409982</v>
       </c>
-      <c r="O45" s="192">
+      <c r="O45" s="107">
         <v>-58.57360279409982</v>
       </c>
       <c r="P45" t="str">
@@ -42961,7 +43095,7 @@
       <c r="E46" s="111">
         <v>369.02469277749583</v>
       </c>
-      <c r="G46" s="202"/>
+      <c r="G46" s="103"/>
       <c r="I46" s="106"/>
       <c r="J46" s="103" t="s">
         <v>180</v>
@@ -42969,16 +43103,16 @@
       <c r="K46" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L46" s="195">
+      <c r="L46" s="111">
         <v>369.02469277749583</v>
       </c>
-      <c r="M46" s="195">
+      <c r="M46" s="111">
         <v>369.02469277749583</v>
       </c>
-      <c r="N46" s="195">
+      <c r="N46" s="111">
         <v>369.02469277749583</v>
       </c>
-      <c r="O46" s="195">
+      <c r="O46" s="111">
         <v>369.02469277749583</v>
       </c>
       <c r="P46" t="str">
@@ -43010,7 +43144,7 @@
       <c r="F47" t="s">
         <v>305</v>
       </c>
-      <c r="G47" s="202"/>
+      <c r="G47" s="103"/>
       <c r="I47" s="106">
         <f>I45+1</f>
         <v>33</v>
@@ -43021,10 +43155,10 @@
       <c r="K47" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="191"/>
-      <c r="M47" s="191"/>
-      <c r="N47" s="191"/>
-      <c r="O47" s="191"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
       <c r="P47" t="str">
         <f t="shared" si="2"/>
         <v>(valid in case L-Flange is calculated)</v>
@@ -43050,7 +43184,7 @@
       <c r="E48" s="110">
         <v>30</v>
       </c>
-      <c r="G48" s="203"/>
+      <c r="G48" s="105"/>
       <c r="I48" s="106"/>
       <c r="J48" s="105" t="s">
         <v>178</v>
@@ -43058,16 +43192,16 @@
       <c r="K48" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="L48" s="188">
+      <c r="L48" s="110">
         <v>30</v>
       </c>
-      <c r="M48" s="188">
+      <c r="M48" s="110">
         <v>60</v>
       </c>
-      <c r="N48" s="188">
+      <c r="N48" s="110">
         <v>90</v>
       </c>
-      <c r="O48" s="188">
+      <c r="O48" s="110">
         <v>120</v>
       </c>
       <c r="P48" t="str">
@@ -43098,7 +43232,7 @@
       <c r="F49" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="202"/>
+      <c r="G49" s="103"/>
       <c r="I49" s="106"/>
       <c r="J49" s="103" t="s">
         <v>176</v>
@@ -43106,16 +43240,16 @@
       <c r="K49" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="L49" s="190">
+      <c r="L49" s="109">
         <v>1.2042771838760873</v>
       </c>
-      <c r="M49" s="190">
+      <c r="M49" s="109">
         <v>2.4085543677521746</v>
       </c>
-      <c r="N49" s="190">
+      <c r="N49" s="109">
         <v>3.6128315516282621</v>
       </c>
-      <c r="O49" s="190">
+      <c r="O49" s="109">
         <v>4.8171087355043491</v>
       </c>
       <c r="P49" t="str">
@@ -43143,7 +43277,7 @@
       <c r="E50" s="109">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G50" s="202"/>
+      <c r="G50" s="103"/>
       <c r="I50" s="106"/>
       <c r="J50" s="103" t="s">
         <v>91</v>
@@ -43151,16 +43285,16 @@
       <c r="K50" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="L50" s="190">
+      <c r="L50" s="109">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M50" s="190">
+      <c r="M50" s="109">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N50" s="190">
+      <c r="N50" s="109">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O50" s="190">
+      <c r="O50" s="109">
         <v>4.5999999999999996</v>
       </c>
       <c r="P50" t="str">
@@ -43188,7 +43322,7 @@
       <c r="E51" s="108">
         <v>1.4</v>
       </c>
-      <c r="G51" s="202"/>
+      <c r="G51" s="103"/>
       <c r="I51" s="106"/>
       <c r="J51" s="103" t="s">
         <v>175</v>
@@ -43196,16 +43330,16 @@
       <c r="K51" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="L51" s="189">
+      <c r="L51" s="108">
         <v>1.4</v>
       </c>
-      <c r="M51" s="189">
+      <c r="M51" s="108">
         <v>1.4</v>
       </c>
-      <c r="N51" s="189">
+      <c r="N51" s="108">
         <v>1.4</v>
       </c>
-      <c r="O51" s="189">
+      <c r="O51" s="108">
         <v>1.4</v>
       </c>
       <c r="P51" t="str">
@@ -43236,7 +43370,7 @@
       <c r="E52" s="109">
         <v>0.25543636477371356</v>
       </c>
-      <c r="G52" s="202"/>
+      <c r="G52" s="103"/>
       <c r="I52" s="106">
         <f>I47+1</f>
         <v>34</v>
@@ -43247,16 +43381,16 @@
       <c r="K52" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L52" s="190">
+      <c r="L52" s="109">
         <v>0.25543636477371356</v>
       </c>
-      <c r="M52" s="190">
+      <c r="M52" s="109">
         <v>0.61333841412818124</v>
       </c>
-      <c r="N52" s="190">
+      <c r="N52" s="109">
         <v>1.0737061480634029</v>
       </c>
-      <c r="O52" s="190">
+      <c r="O52" s="109">
         <v>1.6365395665793787</v>
       </c>
       <c r="P52" t="str">
@@ -43288,7 +43422,7 @@
         <f>0.35+200*E48^-1.6</f>
         <v>1.2162355202035975</v>
       </c>
-      <c r="G53" s="202"/>
+      <c r="G53" s="103"/>
       <c r="I53" s="106">
         <f>I52+1</f>
         <v>35</v>
@@ -43299,16 +43433,16 @@
       <c r="K53" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="190">
+      <c r="L53" s="109">
         <v>1.2162355202035975</v>
       </c>
-      <c r="M53" s="190">
+      <c r="M53" s="109">
         <v>0.63575115537527993</v>
       </c>
-      <c r="N53" s="190">
+      <c r="N53" s="109">
         <v>0.4993626397773579</v>
       </c>
-      <c r="O53" s="190">
+      <c r="O53" s="109">
         <v>0.44426272750754409</v>
       </c>
       <c r="P53" t="str">
@@ -43337,7 +43471,7 @@
         <f>PI()*E50/12</f>
         <v>1.2042771838760873</v>
       </c>
-      <c r="G54" s="202"/>
+      <c r="G54" s="103"/>
       <c r="I54" s="106"/>
       <c r="J54" s="103" t="s">
         <v>171</v>
@@ -43345,16 +43479,16 @@
       <c r="K54" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="L54" s="190">
+      <c r="L54" s="109">
         <v>1.2042771838760873</v>
       </c>
-      <c r="M54" s="190">
+      <c r="M54" s="109">
         <v>1.2042771838760873</v>
       </c>
-      <c r="N54" s="190">
+      <c r="N54" s="109">
         <v>1.2042771838760873</v>
       </c>
-      <c r="O54" s="190">
+      <c r="O54" s="109">
         <v>1.2042771838760873</v>
       </c>
       <c r="P54" t="str">
@@ -43386,7 +43520,7 @@
         <f>SQRT(E54)*E51</f>
         <v>1.5363538916529389</v>
       </c>
-      <c r="G55" s="202"/>
+      <c r="G55" s="103"/>
       <c r="I55" s="106">
         <f>I53+1</f>
         <v>36</v>
@@ -43397,16 +43531,16 @@
       <c r="K55" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L55" s="190">
+      <c r="L55" s="109">
         <v>1.5363538916529389</v>
       </c>
-      <c r="M55" s="190">
+      <c r="M55" s="109">
         <v>1.5363538916529389</v>
       </c>
-      <c r="N55" s="190">
+      <c r="N55" s="109">
         <v>1.5363538916529389</v>
       </c>
-      <c r="O55" s="190">
+      <c r="O55" s="109">
         <v>1.5363538916529389</v>
       </c>
       <c r="P55" t="str">
@@ -43438,7 +43572,7 @@
         <f>1.5*E55</f>
         <v>2.3045308374794082</v>
       </c>
-      <c r="G56" s="202"/>
+      <c r="G56" s="103"/>
       <c r="I56" s="106">
         <f>I55+1</f>
         <v>37</v>
@@ -43449,16 +43583,16 @@
       <c r="K56" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L56" s="190">
+      <c r="L56" s="109">
         <v>2.3045308374794082</v>
       </c>
-      <c r="M56" s="190">
+      <c r="M56" s="109">
         <v>2.3045308374794082</v>
       </c>
-      <c r="N56" s="190">
+      <c r="N56" s="109">
         <v>2.3045308374794082</v>
       </c>
-      <c r="O56" s="190">
+      <c r="O56" s="109">
         <v>2.3045308374794082</v>
       </c>
       <c r="P56" t="str">
@@ -43488,7 +43622,7 @@
         <f>SQRT(LN(E53^2+1))</f>
         <v>0.95286282352314688</v>
       </c>
-      <c r="G57" s="203"/>
+      <c r="G57" s="105"/>
       <c r="I57" s="106">
         <f>I56+1</f>
         <v>38</v>
@@ -43497,16 +43631,16 @@
         <v>167</v>
       </c>
       <c r="K57" s="103"/>
-      <c r="L57" s="190">
+      <c r="L57" s="109">
         <v>0.95286282352314688</v>
       </c>
-      <c r="M57" s="190">
+      <c r="M57" s="109">
         <v>0.58262609700472079</v>
       </c>
-      <c r="N57" s="190">
+      <c r="N57" s="109">
         <v>0.47184092472685457</v>
       </c>
-      <c r="O57" s="190">
+      <c r="O57" s="109">
         <v>0.42441366570439232</v>
       </c>
       <c r="P57" t="str">
@@ -43536,7 +43670,7 @@
         <f>LN(E52)-0.5*E57^2</f>
         <v>-1.818755742136632</v>
       </c>
-      <c r="G58" s="203"/>
+      <c r="G58" s="105"/>
       <c r="I58" s="106">
         <f>I57+1</f>
         <v>39</v>
@@ -43545,16 +43679,16 @@
         <v>166</v>
       </c>
       <c r="K58" s="103"/>
-      <c r="L58" s="190">
+      <c r="L58" s="109">
         <v>-1.818755742136632</v>
       </c>
-      <c r="M58" s="190">
+      <c r="M58" s="109">
         <v>-0.65856501763236064</v>
       </c>
-      <c r="N58" s="190">
+      <c r="N58" s="109">
         <v>-4.0200575628711196E-2</v>
       </c>
-      <c r="O58" s="190">
+      <c r="O58" s="109">
         <v>0.40252051240999598</v>
       </c>
       <c r="P58" t="str">
@@ -43584,7 +43718,7 @@
         <f>E58+1.6449*E57</f>
         <v>-0.25139168372340781</v>
       </c>
-      <c r="G59" s="202"/>
+      <c r="G59" s="103"/>
       <c r="I59" s="106">
         <f>I58+1</f>
         <v>40</v>
@@ -43593,16 +43727,16 @@
         <v>165</v>
       </c>
       <c r="K59" s="103"/>
-      <c r="L59" s="190">
+      <c r="L59" s="109">
         <v>-0.25139168372340781</v>
       </c>
-      <c r="M59" s="190">
+      <c r="M59" s="109">
         <v>0.2997966493307046</v>
       </c>
-      <c r="N59" s="190">
+      <c r="N59" s="109">
         <v>0.73593056145449198</v>
       </c>
-      <c r="O59" s="190">
+      <c r="O59" s="109">
         <v>1.100638551127151</v>
       </c>
       <c r="P59" t="str">
@@ -43633,7 +43767,7 @@
       <c r="E60" s="109">
         <v>0.77768332816019681</v>
       </c>
-      <c r="G60" s="202"/>
+      <c r="G60" s="103"/>
       <c r="I60" s="106">
         <f>I59+1</f>
         <v>41</v>
@@ -43644,16 +43778,16 @@
       <c r="K60" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L60" s="190">
+      <c r="L60" s="109">
         <v>0.77768332816019681</v>
       </c>
-      <c r="M60" s="190">
+      <c r="M60" s="109">
         <v>1.349547878014234</v>
       </c>
-      <c r="N60" s="190">
+      <c r="N60" s="109">
         <v>2.0873778911039058</v>
       </c>
-      <c r="O60" s="190">
+      <c r="O60" s="109">
         <v>3.0060257869038067</v>
       </c>
       <c r="P60" t="str">
@@ -43684,7 +43818,7 @@
       <c r="F61" t="s">
         <v>162</v>
       </c>
-      <c r="G61" s="202"/>
+      <c r="G61" s="103"/>
       <c r="I61" s="106"/>
       <c r="J61" s="103" t="s">
         <v>163</v>
@@ -43692,16 +43826,16 @@
       <c r="K61" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L61" s="190">
+      <c r="L61" s="109">
         <v>0.77768332816019681</v>
       </c>
-      <c r="M61" s="190">
+      <c r="M61" s="109">
         <v>1.349547878014234</v>
       </c>
-      <c r="N61" s="190">
+      <c r="N61" s="109">
         <v>2.0873778911039058</v>
       </c>
-      <c r="O61" s="190">
+      <c r="O61" s="109">
         <v>3.0060257869038067</v>
       </c>
       <c r="P61" t="str">
@@ -43731,7 +43865,7 @@
       <c r="F62" t="s">
         <v>160</v>
       </c>
-      <c r="G62" s="202"/>
+      <c r="G62" s="103"/>
       <c r="I62" s="106">
         <f>I60+1</f>
         <v>42</v>
@@ -43740,10 +43874,10 @@
         <v>161</v>
       </c>
       <c r="K62" s="103"/>
-      <c r="L62" s="196"/>
-      <c r="M62" s="196"/>
-      <c r="N62" s="196"/>
-      <c r="O62" s="196"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="128"/>
       <c r="P62" t="str">
         <f t="shared" si="2"/>
         <v>Gap shape formula</v>
@@ -43771,7 +43905,7 @@
       <c r="F63" t="s">
         <v>158</v>
       </c>
-      <c r="G63" s="205"/>
+      <c r="G63" s="112"/>
       <c r="I63" s="106">
         <f>I62+1</f>
         <v>43</v>
@@ -43780,10 +43914,10 @@
         <v>159</v>
       </c>
       <c r="K63" s="103"/>
-      <c r="L63" s="196"/>
-      <c r="M63" s="196"/>
-      <c r="N63" s="196"/>
-      <c r="O63" s="196"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="128"/>
       <c r="P63" t="str">
         <f t="shared" si="2"/>
         <v>Stress range formula</v>
@@ -43808,7 +43942,7 @@
       </c>
       <c r="D64" s="103"/>
       <c r="E64" s="104"/>
-      <c r="G64" s="202"/>
+      <c r="G64" s="103"/>
       <c r="I64" s="106">
         <f>I63+1</f>
         <v>44</v>
@@ -43817,10 +43951,10 @@
         <v>157</v>
       </c>
       <c r="K64" s="103"/>
-      <c r="L64" s="191"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="191"/>
-      <c r="O64" s="191"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
       <c r="P64" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -43845,7 +43979,7 @@
       </c>
       <c r="D65" s="103"/>
       <c r="E65" s="104"/>
-      <c r="G65" s="202"/>
+      <c r="G65" s="103"/>
       <c r="I65" s="106">
         <f>I64+1</f>
         <v>45</v>
@@ -43854,10 +43988,10 @@
         <v>156</v>
       </c>
       <c r="K65" s="103"/>
-      <c r="L65" s="191"/>
-      <c r="M65" s="191"/>
-      <c r="N65" s="191"/>
-      <c r="O65" s="191"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
       <c r="P65" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -43885,7 +44019,7 @@
       <c r="F66" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="202"/>
+      <c r="G66" s="103"/>
       <c r="I66" s="106">
         <f>I65+1</f>
         <v>46</v>
@@ -43894,10 +44028,10 @@
         <v>155</v>
       </c>
       <c r="K66" s="103"/>
-      <c r="L66" s="196"/>
-      <c r="M66" s="196"/>
-      <c r="N66" s="196"/>
-      <c r="O66" s="196"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
       <c r="P66" t="str">
         <f t="shared" si="2"/>
         <v>Summarized formula for bolt force curve</v>
@@ -43923,7 +44057,7 @@
       <c r="E67" s="109">
         <v>-30.138888888888889</v>
       </c>
-      <c r="G67" s="202"/>
+      <c r="G67" s="103"/>
       <c r="I67" s="106"/>
       <c r="J67" s="103" t="s">
         <v>317</v>
@@ -43931,16 +44065,16 @@
       <c r="K67" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L67" s="190">
+      <c r="L67" s="109">
         <v>-30.138888888888889</v>
       </c>
-      <c r="M67" s="190">
+      <c r="M67" s="109">
         <v>-30.138888888888889</v>
       </c>
-      <c r="N67" s="190">
+      <c r="N67" s="109">
         <v>-30.138888888888889</v>
       </c>
-      <c r="O67" s="190">
+      <c r="O67" s="109">
         <v>-30.138888888888889</v>
       </c>
       <c r="U67" s="144">
@@ -43964,7 +44098,7 @@
       <c r="E68" s="109">
         <v>910</v>
       </c>
-      <c r="G68" s="202"/>
+      <c r="G68" s="103"/>
       <c r="I68" s="106"/>
       <c r="J68" s="103" t="s">
         <v>316</v>
@@ -43972,16 +44106,16 @@
       <c r="K68" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L68" s="190">
+      <c r="L68" s="109">
         <v>910</v>
       </c>
-      <c r="M68" s="190">
+      <c r="M68" s="109">
         <v>910</v>
       </c>
-      <c r="N68" s="190">
+      <c r="N68" s="109">
         <v>910</v>
       </c>
-      <c r="O68" s="190">
+      <c r="O68" s="109">
         <v>910</v>
       </c>
       <c r="U68" s="144">
@@ -44005,7 +44139,7 @@
       <c r="E69" s="109">
         <v>607.8536313595099</v>
       </c>
-      <c r="G69" s="202"/>
+      <c r="G69" s="103"/>
       <c r="I69" s="106"/>
       <c r="J69" s="103" t="s">
         <v>315</v>
@@ -44013,16 +44147,16 @@
       <c r="K69" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L69" s="190">
+      <c r="L69" s="109">
         <v>607.8536313595099</v>
       </c>
-      <c r="M69" s="190">
+      <c r="M69" s="109">
         <v>634.46164136889581</v>
       </c>
-      <c r="N69" s="190">
+      <c r="N69" s="109">
         <v>630.06169166283848</v>
       </c>
-      <c r="O69" s="190">
+      <c r="O69" s="109">
         <v>649.20178034457842</v>
       </c>
       <c r="U69" s="144">
@@ -44046,7 +44180,7 @@
       <c r="E70" s="109">
         <v>1137.5</v>
       </c>
-      <c r="G70" s="202"/>
+      <c r="G70" s="103"/>
       <c r="I70" s="106"/>
       <c r="J70" s="103" t="s">
         <v>314</v>
@@ -44054,16 +44188,16 @@
       <c r="K70" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L70" s="190">
+      <c r="L70" s="109">
         <v>1137.5</v>
       </c>
-      <c r="M70" s="190">
+      <c r="M70" s="109">
         <v>1137.5</v>
       </c>
-      <c r="N70" s="190">
+      <c r="N70" s="109">
         <v>1137.5</v>
       </c>
-      <c r="O70" s="190">
+      <c r="O70" s="109">
         <v>1137.5</v>
       </c>
       <c r="U70" s="144">
@@ -44087,7 +44221,7 @@
       <c r="E71" s="109">
         <v>45.345552163714615</v>
       </c>
-      <c r="G71" s="202"/>
+      <c r="G71" s="103"/>
       <c r="I71" s="106"/>
       <c r="J71" s="103" t="s">
         <v>313</v>
@@ -44095,16 +44229,16 @@
       <c r="K71" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L71" s="190">
+      <c r="L71" s="109">
         <v>45.345552163714615</v>
       </c>
-      <c r="M71" s="190">
+      <c r="M71" s="109">
         <v>40.005758901881755</v>
       </c>
-      <c r="N71" s="190">
+      <c r="N71" s="109">
         <v>38.745596267974193</v>
       </c>
-      <c r="O71" s="190">
+      <c r="O71" s="109">
         <v>37.924356930294898</v>
       </c>
       <c r="U71" s="144">
@@ -44128,7 +44262,7 @@
       <c r="E72" s="109">
         <v>915.19830200272622</v>
       </c>
-      <c r="G72" s="202"/>
+      <c r="G72" s="103"/>
       <c r="I72" s="106"/>
       <c r="J72" s="103" t="s">
         <v>312</v>
@@ -44136,16 +44270,16 @@
       <c r="K72" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L72" s="190">
+      <c r="L72" s="109">
         <v>915.80501393106135</v>
       </c>
-      <c r="M72" s="190">
+      <c r="M72" s="109">
         <v>913.38687122903002</v>
       </c>
-      <c r="N72" s="190">
+      <c r="N72" s="109">
         <v>913.00292312994759</v>
       </c>
-      <c r="O72" s="190">
+      <c r="O72" s="109">
         <v>912.28708527513402</v>
       </c>
       <c r="U72" s="144">
@@ -44167,22 +44301,22 @@
       <c r="E73" s="110">
         <v>27089550.274536062</v>
       </c>
-      <c r="G73" s="202"/>
+      <c r="G73" s="103"/>
       <c r="I73" s="106"/>
       <c r="J73" s="103" t="s">
         <v>311</v>
       </c>
       <c r="K73" s="103"/>
-      <c r="L73" s="188">
+      <c r="L73" s="110">
         <v>27089550.274536062</v>
       </c>
-      <c r="M73" s="188">
+      <c r="M73" s="110">
         <v>27712445.455596466</v>
       </c>
-      <c r="N73" s="188">
+      <c r="N73" s="110">
         <v>26891623.313804828</v>
       </c>
-      <c r="O73" s="188">
+      <c r="O73" s="110">
         <v>28264325.559781257</v>
       </c>
       <c r="U73" s="144">
@@ -44204,22 +44338,22 @@
       <c r="E74" s="111">
         <v>13856.232543735694</v>
       </c>
-      <c r="G74" s="202"/>
+      <c r="G74" s="103"/>
       <c r="I74" s="106"/>
       <c r="J74" s="103" t="s">
         <v>310</v>
       </c>
       <c r="K74" s="103"/>
-      <c r="L74" s="195">
+      <c r="L74" s="111">
         <v>13469.154871512397</v>
       </c>
-      <c r="M74" s="195">
+      <c r="M74" s="111">
         <v>13706.990957672137</v>
       </c>
-      <c r="N74" s="195">
+      <c r="N74" s="111">
         <v>13688.688779442742</v>
       </c>
-      <c r="O74" s="195">
+      <c r="O74" s="111">
         <v>13930.678382460761</v>
       </c>
       <c r="U74" s="144">
@@ -44241,22 +44375,22 @@
       <c r="E75" s="111">
         <v>1654838.4920222175</v>
       </c>
-      <c r="G75" s="202"/>
+      <c r="G75" s="103"/>
       <c r="I75" s="106"/>
       <c r="J75" s="103" t="s">
         <v>309</v>
       </c>
       <c r="K75" s="103"/>
-      <c r="L75" s="195">
+      <c r="L75" s="111">
         <v>1878458.9697468264</v>
       </c>
-      <c r="M75" s="195">
+      <c r="M75" s="111">
         <v>1202825.4056281121</v>
       </c>
-      <c r="N75" s="195">
+      <c r="N75" s="111">
         <v>1054488.3022813962</v>
       </c>
-      <c r="O75" s="195">
+      <c r="O75" s="111">
         <v>841291.0195003096</v>
       </c>
       <c r="U75" s="144">
@@ -44278,22 +44412,22 @@
       <c r="E76" s="136">
         <v>5.1149732658206692E-4</v>
       </c>
-      <c r="G76" s="203"/>
+      <c r="G76" s="105"/>
       <c r="I76" s="106"/>
       <c r="J76" s="105" t="s">
         <v>308</v>
       </c>
       <c r="K76" s="103"/>
-      <c r="L76" s="198">
+      <c r="L76" s="136">
         <v>4.9720850789366122E-4</v>
       </c>
-      <c r="M76" s="198">
+      <c r="M76" s="136">
         <v>4.9461499093015053E-4</v>
       </c>
-      <c r="N76" s="198">
+      <c r="N76" s="136">
         <v>5.0903170179450073E-4</v>
       </c>
-      <c r="O76" s="198">
+      <c r="O76" s="136">
         <v>4.9287142383766731E-4</v>
       </c>
       <c r="U76" s="144">
@@ -44315,22 +44449,22 @@
       <c r="E77" s="136">
         <v>6.1087706338844285E-2</v>
       </c>
-      <c r="G77" s="203"/>
+      <c r="G77" s="105"/>
       <c r="I77" s="106"/>
       <c r="J77" s="105" t="s">
         <v>307</v>
       </c>
       <c r="K77" s="103"/>
-      <c r="L77" s="198">
+      <c r="L77" s="136">
         <v>6.9342567547625966E-2</v>
       </c>
-      <c r="M77" s="198">
+      <c r="M77" s="136">
         <v>4.3403798757327069E-2</v>
       </c>
-      <c r="N77" s="198">
+      <c r="N77" s="136">
         <v>3.9212519451738495E-2</v>
       </c>
-      <c r="O77" s="198">
+      <c r="O77" s="136">
         <v>2.9765119203743723E-2</v>
       </c>
       <c r="U77" s="144">
@@ -44352,22 +44486,22 @@
       <c r="E78" s="108">
         <v>911.3764956553315</v>
       </c>
-      <c r="G78" s="205"/>
+      <c r="G78" s="112"/>
       <c r="I78" s="106"/>
       <c r="J78" s="112" t="s">
         <v>306</v>
       </c>
       <c r="K78" s="103"/>
-      <c r="L78" s="189">
+      <c r="L78" s="108">
         <v>911.63826728603794</v>
       </c>
-      <c r="M78" s="189">
+      <c r="M78" s="108">
         <v>910.85885744349025</v>
       </c>
-      <c r="N78" s="189">
+      <c r="N78" s="108">
         <v>910.71944148506157</v>
       </c>
-      <c r="O78" s="189">
+      <c r="O78" s="108">
         <v>910.4493865695764</v>
       </c>
       <c r="U78" s="144">
@@ -44394,7 +44528,7 @@
       <c r="E79" s="107">
         <v>243.87636574071416</v>
       </c>
-      <c r="G79" s="203"/>
+      <c r="G79" s="105"/>
       <c r="I79" s="106">
         <f>I66+1</f>
         <v>47</v>
@@ -44405,16 +44539,16 @@
       <c r="K79" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L79" s="192">
+      <c r="L79" s="107">
         <v>243.87636574071416</v>
       </c>
-      <c r="M79" s="192">
+      <c r="M79" s="107">
         <v>153.11863104916608</v>
       </c>
-      <c r="N79" s="192">
+      <c r="N79" s="107">
         <v>138.24412689899947</v>
       </c>
-      <c r="O79" s="192">
+      <c r="O79" s="107">
         <v>106.55984829208059</v>
       </c>
       <c r="P79" t="str">
@@ -44442,7 +44576,7 @@
       <c r="E80" s="111">
         <v>12462.741690022009</v>
       </c>
-      <c r="G80" s="202"/>
+      <c r="G80" s="103"/>
       <c r="I80" s="106"/>
       <c r="J80" s="103" t="s">
         <v>142</v>
@@ -44450,16 +44584,16 @@
       <c r="K80" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="L80" s="195">
+      <c r="L80" s="111">
         <v>12462.741690022009</v>
       </c>
-      <c r="M80" s="195">
+      <c r="M80" s="111">
         <v>12462.741690022009</v>
       </c>
-      <c r="N80" s="195">
+      <c r="N80" s="111">
         <v>12462.741690022009</v>
       </c>
-      <c r="O80" s="195">
+      <c r="O80" s="111">
         <v>12462.741690022009</v>
       </c>
       <c r="P80" t="str">
@@ -44487,7 +44621,7 @@
       <c r="E81" s="114">
         <v>16227528.242216157</v>
       </c>
-      <c r="G81" s="202"/>
+      <c r="G81" s="103"/>
       <c r="I81" s="106"/>
       <c r="J81" s="103" t="s">
         <v>140</v>
@@ -44495,16 +44629,16 @@
       <c r="K81" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="L81" s="199">
+      <c r="L81" s="135">
         <v>16227528.242216157</v>
       </c>
-      <c r="M81" s="199">
+      <c r="M81" s="135">
         <v>16227528.242216157</v>
       </c>
-      <c r="N81" s="199">
+      <c r="N81" s="135">
         <v>16227528.242216157</v>
       </c>
-      <c r="O81" s="199">
+      <c r="O81" s="135">
         <v>16227528.242216157</v>
       </c>
       <c r="P81" t="str">
@@ -44532,7 +44666,7 @@
       <c r="E82" s="111">
         <v>31875</v>
       </c>
-      <c r="G82" s="202"/>
+      <c r="G82" s="103"/>
       <c r="I82" s="106"/>
       <c r="J82" s="103" t="s">
         <v>146</v>
@@ -44540,16 +44674,16 @@
       <c r="K82" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="L82" s="195">
+      <c r="L82" s="111">
         <v>31875</v>
       </c>
-      <c r="M82" s="195">
+      <c r="M82" s="111">
         <v>31875</v>
       </c>
-      <c r="N82" s="195">
+      <c r="N82" s="111">
         <v>31875</v>
       </c>
-      <c r="O82" s="195">
+      <c r="O82" s="111">
         <v>31875</v>
       </c>
       <c r="P82" t="str">
@@ -44577,7 +44711,7 @@
       <c r="E83" s="114">
         <v>41503906.25</v>
       </c>
-      <c r="G83" s="202"/>
+      <c r="G83" s="103"/>
       <c r="I83" s="106"/>
       <c r="J83" s="103" t="s">
         <v>145</v>
@@ -44585,16 +44719,16 @@
       <c r="K83" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="L83" s="199">
+      <c r="L83" s="135">
         <v>41503906.25</v>
       </c>
-      <c r="M83" s="199">
+      <c r="M83" s="135">
         <v>41503906.25</v>
       </c>
-      <c r="N83" s="199">
+      <c r="N83" s="135">
         <v>41503906.25</v>
       </c>
-      <c r="O83" s="199">
+      <c r="O83" s="135">
         <v>41503906.25</v>
       </c>
       <c r="P83" t="str">
@@ -44625,7 +44759,7 @@
       <c r="E84" s="111">
         <v>6290.618398144642</v>
       </c>
-      <c r="G84" s="202"/>
+      <c r="G84" s="103"/>
       <c r="I84" s="106">
         <f>I79+1</f>
         <v>48</v>
@@ -44636,16 +44770,16 @@
       <c r="K84" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L84" s="195">
+      <c r="L84" s="111">
         <v>6290.618398144642</v>
       </c>
-      <c r="M84" s="195">
+      <c r="M84" s="111">
         <v>2275.9680229650621</v>
       </c>
-      <c r="N84" s="195">
+      <c r="N84" s="111">
         <v>1328.5320188101421</v>
       </c>
-      <c r="O84" s="195">
+      <c r="O84" s="111">
         <v>711.09447891656316</v>
       </c>
       <c r="P84" t="str">
@@ -44673,7 +44807,7 @@
       <c r="E85" s="108">
         <v>1.5</v>
       </c>
-      <c r="G85" s="202"/>
+      <c r="G85" s="103"/>
       <c r="I85" s="106"/>
       <c r="J85" s="103" t="s">
         <v>353</v>
@@ -44681,16 +44815,16 @@
       <c r="K85" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L85" s="189">
+      <c r="L85" s="108">
         <v>1.5</v>
       </c>
-      <c r="M85" s="189">
+      <c r="M85" s="108">
         <v>2</v>
       </c>
-      <c r="N85" s="189">
+      <c r="N85" s="108">
         <v>2.5</v>
       </c>
-      <c r="O85" s="189">
+      <c r="O85" s="108">
         <v>2.5</v>
       </c>
       <c r="U85" s="144">
@@ -44720,7 +44854,7 @@
       <c r="F86" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="202"/>
+      <c r="G86" s="103"/>
       <c r="I86" s="106">
         <f>I84+1</f>
         <v>49</v>
@@ -44731,16 +44865,16 @@
       <c r="K86" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L86" s="195">
+      <c r="L86" s="111">
         <v>2762.8420208404168</v>
       </c>
-      <c r="M86" s="195">
+      <c r="M86" s="111">
         <v>1041.2419008380168</v>
       </c>
-      <c r="N86" s="195">
+      <c r="N86" s="111">
         <v>512.00952619052384</v>
       </c>
-      <c r="O86" s="195">
+      <c r="O86" s="111">
         <v>278.26526530530617</v>
       </c>
       <c r="P86" t="str">
@@ -44771,7 +44905,7 @@
       <c r="F87" t="s">
         <v>150</v>
       </c>
-      <c r="G87" s="202"/>
+      <c r="G87" s="103"/>
       <c r="I87" s="106"/>
       <c r="J87" s="103" t="s">
         <v>149</v>
@@ -44779,16 +44913,16 @@
       <c r="K87" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L87" s="195">
+      <c r="L87" s="111">
         <v>2873.9789957155294</v>
       </c>
-      <c r="M87" s="195">
+      <c r="M87" s="111">
         <v>1117.5739946902522</v>
       </c>
-      <c r="N87" s="195">
+      <c r="N87" s="111">
         <v>609.55648707118451</v>
       </c>
-      <c r="O87" s="195">
+      <c r="O87" s="111">
         <v>386.82104021159915</v>
       </c>
       <c r="P87" t="str">
@@ -44819,7 +44953,7 @@
       <c r="F88" t="s">
         <v>148</v>
       </c>
-      <c r="G88" s="202"/>
+      <c r="G88" s="103"/>
       <c r="I88" s="106"/>
       <c r="J88" s="103" t="s">
         <v>149</v>
@@ -44827,16 +44961,16 @@
       <c r="K88" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L88" s="195">
+      <c r="L88" s="111">
         <v>2762.8420208404168</v>
       </c>
-      <c r="M88" s="195">
+      <c r="M88" s="111">
         <v>1041.2419008380168</v>
       </c>
-      <c r="N88" s="195">
+      <c r="N88" s="111">
         <v>512.00952619052384</v>
       </c>
-      <c r="O88" s="195">
+      <c r="O88" s="111">
         <v>278.26526530530617</v>
       </c>
       <c r="P88" t="str">
@@ -44867,7 +45001,7 @@
       <c r="E89" s="109">
         <v>1.8202477434344697</v>
       </c>
-      <c r="G89" s="202"/>
+      <c r="G89" s="103"/>
       <c r="I89" s="106">
         <f>I86+1</f>
         <v>50</v>
@@ -44878,16 +45012,16 @@
       <c r="K89" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L89" s="190">
+      <c r="L89" s="109">
         <v>1.8202477434344697</v>
       </c>
-      <c r="M89" s="190">
+      <c r="M89" s="109">
         <v>2.3404954868689396</v>
       </c>
-      <c r="N89" s="190">
+      <c r="N89" s="109">
         <v>2.8607432303034095</v>
       </c>
-      <c r="O89" s="190">
+      <c r="O89" s="109">
         <v>3.3809909737378794</v>
       </c>
       <c r="P89" t="str">
@@ -44918,7 +45052,7 @@
       <c r="E90" s="107">
         <v>1430.9035779226776</v>
       </c>
-      <c r="G90" s="202"/>
+      <c r="G90" s="103"/>
       <c r="I90" s="106">
         <f>I89+1</f>
         <v>51</v>
@@ -44929,16 +45063,16 @@
       <c r="K90" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L90" s="192">
+      <c r="L90" s="107">
         <v>1430.9035779226776</v>
       </c>
-      <c r="M90" s="192">
+      <c r="M90" s="107">
         <v>96.742110644514142</v>
       </c>
-      <c r="N90" s="192">
+      <c r="N90" s="107">
         <v>19.403281333533013</v>
       </c>
-      <c r="O90" s="192">
+      <c r="O90" s="107">
         <v>6.1725262613190992</v>
       </c>
       <c r="P90" t="str">
@@ -44972,7 +45106,7 @@
       <c r="F91" t="s">
         <v>304</v>
       </c>
-      <c r="G91" s="203"/>
+      <c r="G91" s="105"/>
       <c r="I91" s="106">
         <f>I90+1</f>
         <v>52</v>
@@ -44983,16 +45117,16 @@
       <c r="K91" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L91" s="192">
+      <c r="L91" s="107">
         <v>113.37858601103791</v>
       </c>
-      <c r="M91" s="192">
+      <c r="M91" s="107">
         <v>123.84086364945203</v>
       </c>
-      <c r="N91" s="192">
+      <c r="N91" s="107">
         <v>126.74893690589515</v>
       </c>
-      <c r="O91" s="192">
+      <c r="O91" s="107">
         <v>128.55266922335946</v>
       </c>
       <c r="P91" t="str">
@@ -45026,7 +45160,7 @@
       <c r="F92" t="s">
         <v>304</v>
       </c>
-      <c r="G92" s="202"/>
+      <c r="G92" s="103"/>
       <c r="I92" s="106">
         <f>I91+1</f>
         <v>53</v>
@@ -45037,16 +45171,16 @@
       <c r="K92" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L92" s="192">
+      <c r="L92" s="107">
         <v>144.694544425494</v>
       </c>
-      <c r="M92" s="192">
+      <c r="M92" s="107">
         <v>74.074170366198771</v>
       </c>
-      <c r="N92" s="192">
+      <c r="N92" s="107">
         <v>54.444675885207644</v>
       </c>
-      <c r="O92" s="192">
+      <c r="O92" s="107">
         <v>42.269482742323625</v>
       </c>
       <c r="P92" t="str">
@@ -45077,7 +45211,7 @@
       <c r="F93" t="s">
         <v>411</v>
       </c>
-      <c r="G93" s="203"/>
+      <c r="G93" s="105"/>
       <c r="I93" s="106"/>
       <c r="J93" s="105" t="s">
         <v>138</v>
@@ -45085,16 +45219,16 @@
       <c r="K93" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L93" s="189">
-        <v>0</v>
-      </c>
-      <c r="M93" s="189">
-        <v>0</v>
-      </c>
-      <c r="N93" s="189">
-        <v>0</v>
-      </c>
-      <c r="O93" s="189">
+      <c r="L93" s="108">
+        <v>0</v>
+      </c>
+      <c r="M93" s="108">
+        <v>0</v>
+      </c>
+      <c r="N93" s="108">
+        <v>0</v>
+      </c>
+      <c r="O93" s="108">
         <v>0</v>
       </c>
       <c r="P93" t="str">
@@ -45125,7 +45259,7 @@
       <c r="E94" s="107">
         <v>243.87636574071416</v>
       </c>
-      <c r="G94" s="203"/>
+      <c r="G94" s="105"/>
       <c r="I94" s="106">
         <f>I92+1</f>
         <v>54</v>
@@ -45136,16 +45270,16 @@
       <c r="K94" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L94" s="192">
+      <c r="L94" s="107">
         <v>243.87636574071416</v>
       </c>
-      <c r="M94" s="192">
+      <c r="M94" s="107">
         <v>153.11863104916608</v>
       </c>
-      <c r="N94" s="192">
+      <c r="N94" s="107">
         <v>138.24412689899947</v>
       </c>
-      <c r="O94" s="192">
+      <c r="O94" s="107">
         <v>106.55984829208059</v>
       </c>
       <c r="P94" t="str">
@@ -45176,7 +45310,7 @@
       <c r="E95" s="107">
         <v>1137.5</v>
       </c>
-      <c r="G95" s="202"/>
+      <c r="G95" s="103"/>
       <c r="I95" s="106">
         <f>I94+1</f>
         <v>55</v>
@@ -45187,16 +45321,16 @@
       <c r="K95" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L95" s="192">
+      <c r="L95" s="107">
         <v>1137.5</v>
       </c>
-      <c r="M95" s="192">
+      <c r="M95" s="107">
         <v>1137.5</v>
       </c>
-      <c r="N95" s="192">
+      <c r="N95" s="107">
         <v>1137.5</v>
       </c>
-      <c r="O95" s="192">
+      <c r="O95" s="107">
         <v>1137.5</v>
       </c>
       <c r="P95" t="str">
@@ -45230,7 +45364,7 @@
       <c r="F96" t="s">
         <v>305</v>
       </c>
-      <c r="G96" s="202"/>
+      <c r="G96" s="103"/>
       <c r="I96" s="106">
         <f>I95+1</f>
         <v>56</v>
@@ -45241,16 +45375,16 @@
       <c r="K96" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L96" s="192">
+      <c r="L96" s="107">
         <v>739.57093344631232</v>
       </c>
-      <c r="M96" s="192">
+      <c r="M96" s="107">
         <v>739.57093344631232</v>
       </c>
-      <c r="N96" s="192">
+      <c r="N96" s="107">
         <v>739.57093344631232</v>
       </c>
-      <c r="O96" s="192">
+      <c r="O96" s="107">
         <v>739.57093344631232</v>
       </c>
       <c r="P96" t="str">
@@ -45284,7 +45418,7 @@
       <c r="F97" t="s">
         <v>304</v>
       </c>
-      <c r="G97" s="202"/>
+      <c r="G97" s="103"/>
       <c r="I97" s="106">
         <f>I96+1</f>
         <v>57</v>
@@ -45295,16 +45429,16 @@
       <c r="K97" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L97" s="189">
+      <c r="L97" s="108">
         <v>739.57093344631232</v>
       </c>
-      <c r="M97" s="189">
+      <c r="M97" s="108">
         <v>739.57093344631232</v>
       </c>
-      <c r="N97" s="189">
+      <c r="N97" s="108">
         <v>739.57093344631232</v>
       </c>
-      <c r="O97" s="189">
+      <c r="O97" s="108">
         <v>739.57093344631232</v>
       </c>
       <c r="P97" t="str">
@@ -45335,7 +45469,7 @@
       <c r="E98" s="109">
         <v>1.2262664773048815</v>
       </c>
-      <c r="G98" s="203"/>
+      <c r="G98" s="105"/>
       <c r="I98" s="106">
         <f>I97+1</f>
         <v>58</v>
@@ -45346,16 +45480,16 @@
       <c r="K98" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L98" s="190">
+      <c r="L98" s="109">
         <v>1.2262664773048815</v>
       </c>
-      <c r="M98" s="190">
+      <c r="M98" s="109">
         <v>1.0818640131098634</v>
       </c>
-      <c r="N98" s="190">
+      <c r="N98" s="109">
         <v>1.0477858043291219</v>
       </c>
-      <c r="O98" s="190">
+      <c r="O98" s="109">
         <v>1.0255772696087966</v>
       </c>
       <c r="P98" t="str">
@@ -45383,7 +45517,7 @@
       <c r="E99" s="107">
         <v>99.70193352017607</v>
       </c>
-      <c r="G99" s="203"/>
+      <c r="G99" s="105"/>
       <c r="I99" s="106"/>
       <c r="J99" s="105" t="s">
         <v>270</v>
@@ -45391,16 +45525,16 @@
       <c r="K99" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L99" s="192">
+      <c r="L99" s="107">
         <v>99.70193352017607</v>
       </c>
-      <c r="M99" s="192">
+      <c r="M99" s="107">
         <v>99.70193352017607</v>
       </c>
-      <c r="N99" s="192">
+      <c r="N99" s="107">
         <v>99.70193352017607</v>
       </c>
-      <c r="O99" s="192">
+      <c r="O99" s="107">
         <v>99.70193352017607</v>
       </c>
       <c r="P99" t="str">
@@ -45431,7 +45565,7 @@
       <c r="E100" s="107">
         <v>27801.813477072803</v>
       </c>
-      <c r="G100" s="202"/>
+      <c r="G100" s="103"/>
       <c r="I100" s="106">
         <f>I98+1</f>
         <v>59</v>
@@ -45442,16 +45576,16 @@
       <c r="K100" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="L100" s="192">
+      <c r="L100" s="107">
         <v>27801.813477072803</v>
       </c>
-      <c r="M100" s="192">
+      <c r="M100" s="107">
         <v>27801.813477072803</v>
       </c>
-      <c r="N100" s="192">
+      <c r="N100" s="107">
         <v>27801.813477072803</v>
       </c>
-      <c r="O100" s="192">
+      <c r="O100" s="107">
         <v>27801.813477072803</v>
       </c>
       <c r="P100" t="str">
@@ -45473,14 +45607,14 @@
       <c r="C101" s="103"/>
       <c r="D101" s="103"/>
       <c r="E101" s="111"/>
-      <c r="G101" s="202"/>
+      <c r="G101" s="103"/>
       <c r="I101" s="106"/>
       <c r="J101" s="103"/>
       <c r="K101" s="103"/>
-      <c r="L101" s="195"/>
-      <c r="M101" s="195"/>
-      <c r="N101" s="195"/>
-      <c r="O101" s="195"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="111"/>
+      <c r="N101" s="111"/>
+      <c r="O101" s="111"/>
       <c r="U101" s="144">
         <v>14025.744884</v>
       </c>
@@ -45505,7 +45639,7 @@
       <c r="E102" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="G102" s="202"/>
+      <c r="G102" s="103"/>
       <c r="I102" s="106">
         <f>I101+1</f>
         <v>1</v>
@@ -45516,16 +45650,16 @@
       <c r="K102" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L102" s="190">
+      <c r="L102" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="M102" s="190">
+      <c r="M102" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="N102" s="190">
+      <c r="N102" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="O102" s="190">
+      <c r="O102" s="109">
         <v>0.2668106299486126</v>
       </c>
       <c r="P102" t="str">
@@ -45560,7 +45694,7 @@
       <c r="F103" t="s">
         <v>304</v>
       </c>
-      <c r="G103" s="202"/>
+      <c r="G103" s="103"/>
       <c r="I103" s="106">
         <f>I102+1</f>
         <v>2</v>
@@ -45571,16 +45705,16 @@
       <c r="K103" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L103" s="190">
+      <c r="L103" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="M103" s="190">
+      <c r="M103" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="N103" s="190">
+      <c r="N103" s="109">
         <v>0.2668106299486126</v>
       </c>
-      <c r="O103" s="190">
+      <c r="O103" s="109">
         <v>0.2668106299486126</v>
       </c>
       <c r="P103" t="str">
@@ -45612,7 +45746,7 @@
         <f>"Note that this includes a macro-geometric SCF="&amp;TEXT(V8,"0.00")</f>
         <v>Note that this includes a macro-geometric SCF=1.00</v>
       </c>
-      <c r="G104" s="202"/>
+      <c r="G104" s="103"/>
       <c r="I104" s="106"/>
       <c r="J104" s="103" t="s">
         <v>131</v>
@@ -45620,16 +45754,16 @@
       <c r="K104" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L104" s="188">
+      <c r="L104" s="110">
         <v>4340</v>
       </c>
-      <c r="M104" s="188">
+      <c r="M104" s="110">
         <v>4340</v>
       </c>
-      <c r="N104" s="188">
+      <c r="N104" s="110">
         <v>4340</v>
       </c>
-      <c r="O104" s="188">
+      <c r="O104" s="110">
         <v>4340</v>
       </c>
       <c r="P104" t="str">
@@ -45664,7 +45798,7 @@
         <f>F104</f>
         <v>Note that this includes a macro-geometric SCF=1.00</v>
       </c>
-      <c r="G105" s="203"/>
+      <c r="G105" s="105"/>
       <c r="I105" s="106">
         <f>I103+1</f>
         <v>3</v>
@@ -45675,16 +45809,16 @@
       <c r="K105" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L105" s="192">
+      <c r="L105" s="107">
         <v>-30.138888888888889</v>
       </c>
-      <c r="M105" s="192">
+      <c r="M105" s="107">
         <v>-30.138888888888889</v>
       </c>
-      <c r="N105" s="192">
+      <c r="N105" s="107">
         <v>-30.138888888888889</v>
       </c>
-      <c r="O105" s="192">
+      <c r="O105" s="107">
         <v>-30.138888888888889</v>
       </c>
       <c r="P105" t="str">
@@ -45708,16 +45842,15 @@
       </c>
       <c r="D106" s="103"/>
       <c r="E106" s="104"/>
-      <c r="G106" s="201"/>
       <c r="I106" s="106">
         <f t="shared" ref="I106:I113" si="7">I105+1</f>
         <v>4</v>
       </c>
       <c r="K106" s="103"/>
-      <c r="L106" s="191"/>
-      <c r="M106" s="191"/>
-      <c r="N106" s="191"/>
-      <c r="O106" s="191"/>
+      <c r="L106" s="104"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="104"/>
+      <c r="O106" s="104"/>
       <c r="P106" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -45746,7 +45879,7 @@
       <c r="E107" s="107">
         <v>-274.01525462960308</v>
       </c>
-      <c r="G107" s="202"/>
+      <c r="G107" s="103"/>
       <c r="I107" s="106">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -45757,16 +45890,16 @@
       <c r="K107" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L107" s="192">
+      <c r="L107" s="107">
         <v>-274.01525462960308</v>
       </c>
-      <c r="M107" s="192">
+      <c r="M107" s="107">
         <v>-183.25751993805497</v>
       </c>
-      <c r="N107" s="192">
+      <c r="N107" s="107">
         <v>-168.38301578788835</v>
       </c>
-      <c r="O107" s="192">
+      <c r="O107" s="107">
         <v>-136.69873718096949</v>
       </c>
       <c r="P107" t="str">
@@ -45797,7 +45930,7 @@
       <c r="E108" s="109">
         <v>3.0306933887231505E-2</v>
       </c>
-      <c r="G108" s="203"/>
+      <c r="G108" s="105"/>
       <c r="I108" s="106">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -45808,16 +45941,16 @@
       <c r="K108" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L108" s="190">
+      <c r="L108" s="109">
         <v>3.9421664449718612E-2</v>
       </c>
-      <c r="M108" s="190">
+      <c r="M108" s="109">
         <v>1.3638967747055891E-2</v>
       </c>
-      <c r="N108" s="190">
+      <c r="N108" s="109">
         <v>8.580122819239356E-3</v>
       </c>
-      <c r="O108" s="190">
+      <c r="O108" s="109">
         <v>1.0521218655412518E-4</v>
       </c>
       <c r="P108" t="str">
@@ -45848,7 +45981,7 @@
       <c r="E109" s="108">
         <v>906.30442755341892</v>
       </c>
-      <c r="G109" s="202"/>
+      <c r="G109" s="103"/>
       <c r="I109" s="106">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -45859,16 +45992,16 @@
       <c r="K109" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L109" s="189">
+      <c r="L109" s="108">
         <v>905.19299387127637</v>
       </c>
-      <c r="M109" s="189">
+      <c r="M109" s="108">
         <v>908.95580996482352</v>
       </c>
-      <c r="N109" s="189">
+      <c r="N109" s="108">
         <v>909.40692420608411</v>
       </c>
-      <c r="O109" s="189">
+      <c r="O109" s="108">
         <v>909.99439430268114</v>
       </c>
       <c r="P109" t="str">
@@ -45902,7 +46035,7 @@
       <c r="F110" t="s">
         <v>305</v>
       </c>
-      <c r="G110" s="203"/>
+      <c r="G110" s="105"/>
       <c r="I110" s="106">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -45913,16 +46046,16 @@
       <c r="K110" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L110" s="200">
+      <c r="L110" s="113">
         <v>7.6903449904542856E-2</v>
       </c>
-      <c r="M110" s="200">
+      <c r="M110" s="113">
         <v>4.8284100579312011E-2</v>
       </c>
-      <c r="N110" s="200">
+      <c r="N110" s="113">
         <v>4.359360635576174E-2</v>
       </c>
-      <c r="O110" s="200">
+      <c r="O110" s="113">
         <v>3.3602353922554021E-2</v>
       </c>
       <c r="P110" t="str">
@@ -45957,7 +46090,7 @@
       <c r="F111" t="s">
         <v>304</v>
       </c>
-      <c r="G111" s="203"/>
+      <c r="G111" s="105"/>
       <c r="I111" s="106">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -45968,16 +46101,16 @@
       <c r="K111" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L111" s="200">
+      <c r="L111" s="113">
         <v>7.6903449904542856E-2</v>
       </c>
-      <c r="M111" s="200">
+      <c r="M111" s="113">
         <v>4.8284100579312011E-2</v>
       </c>
-      <c r="N111" s="200">
+      <c r="N111" s="113">
         <v>4.359360635576174E-2</v>
       </c>
-      <c r="O111" s="200">
+      <c r="O111" s="113">
         <v>3.3602353922554021E-2</v>
       </c>
       <c r="P111" t="str">
@@ -46009,7 +46142,7 @@
       <c r="F112" t="s">
         <v>269</v>
       </c>
-      <c r="G112" s="203"/>
+      <c r="G112" s="105"/>
       <c r="I112" s="106">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -46020,10 +46153,10 @@
       <c r="K112" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L112" s="196"/>
-      <c r="M112" s="196"/>
-      <c r="N112" s="196"/>
-      <c r="O112" s="196"/>
+      <c r="L112" s="128"/>
+      <c r="M112" s="128"/>
+      <c r="N112" s="128"/>
+      <c r="O112" s="128"/>
       <c r="P112" t="str">
         <f t="shared" si="5"/>
         <v>Bending moment L-Flange as a function of external force Z</v>
@@ -46052,7 +46185,7 @@
       <c r="E113" s="107">
         <v>59.473589288780936</v>
       </c>
-      <c r="G113" s="203"/>
+      <c r="G113" s="105"/>
       <c r="I113" s="106">
         <f t="shared" si="7"/>
         <v>11</v>
@@ -46063,16 +46196,16 @@
       <c r="K113" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="L113" s="192">
+      <c r="L113" s="107">
         <v>59.473589288780936</v>
       </c>
-      <c r="M113" s="192">
+      <c r="M113" s="107">
         <v>59.473589288780936</v>
       </c>
-      <c r="N113" s="192">
+      <c r="N113" s="107">
         <v>59.473589288780936</v>
       </c>
-      <c r="O113" s="192">
+      <c r="O113" s="107">
         <v>59.473589288780936</v>
       </c>
       <c r="P113" t="str">
@@ -46103,7 +46236,7 @@
       <c r="F114" t="s">
         <v>334</v>
       </c>
-      <c r="G114" s="203"/>
+      <c r="G114" s="105"/>
       <c r="I114" s="106"/>
       <c r="J114" s="105" t="s">
         <v>267</v>
@@ -46111,16 +46244,16 @@
       <c r="K114" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="L114" s="194">
+      <c r="L114" s="114">
         <v>6.7808046075429031E-9</v>
       </c>
-      <c r="M114" s="194">
+      <c r="M114" s="114">
         <v>6.7808046075429031E-9</v>
       </c>
-      <c r="N114" s="194">
+      <c r="N114" s="114">
         <v>6.7808046075429031E-9</v>
       </c>
-      <c r="O114" s="194">
+      <c r="O114" s="114">
         <v>6.7808046075429031E-9</v>
       </c>
       <c r="P114" t="str">
@@ -46152,7 +46285,7 @@
       <c r="F115" t="s">
         <v>265</v>
       </c>
-      <c r="G115" s="203"/>
+      <c r="G115" s="105"/>
       <c r="I115" s="106">
         <f>I113+1</f>
         <v>12</v>
@@ -46163,10 +46296,10 @@
       <c r="K115" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L115" s="196"/>
-      <c r="M115" s="196"/>
-      <c r="N115" s="196"/>
-      <c r="O115" s="196"/>
+      <c r="L115" s="128"/>
+      <c r="M115" s="128"/>
+      <c r="N115" s="128"/>
+      <c r="O115" s="128"/>
       <c r="P115" t="str">
         <f t="shared" si="5"/>
         <v>Bending moment for T-Flange as a function of external force Z</v>
@@ -46196,7 +46329,7 @@
       <c r="F116" t="s">
         <v>263</v>
       </c>
-      <c r="G116" s="203"/>
+      <c r="G116" s="105"/>
       <c r="I116" s="106">
         <f>I115+1</f>
         <v>13</v>
@@ -46207,10 +46340,10 @@
       <c r="K116" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L116" s="196"/>
-      <c r="M116" s="196"/>
-      <c r="N116" s="196"/>
-      <c r="O116" s="196"/>
+      <c r="L116" s="128"/>
+      <c r="M116" s="128"/>
+      <c r="N116" s="128"/>
+      <c r="O116" s="128"/>
       <c r="P116" t="str">
         <f t="shared" si="5"/>
         <v>Intermediate values as function of Z</v>
@@ -46240,7 +46373,7 @@
       <c r="F117" t="s">
         <v>263</v>
       </c>
-      <c r="G117" s="203"/>
+      <c r="G117" s="105"/>
       <c r="I117" s="106">
         <f>I116+1</f>
         <v>14</v>
@@ -46251,10 +46384,10 @@
       <c r="K117" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L117" s="196"/>
-      <c r="M117" s="196"/>
-      <c r="N117" s="196"/>
-      <c r="O117" s="196"/>
+      <c r="L117" s="128"/>
+      <c r="M117" s="128"/>
+      <c r="N117" s="128"/>
+      <c r="O117" s="128"/>
       <c r="P117" t="str">
         <f t="shared" si="5"/>
         <v>Intermediate values as function of Z</v>
@@ -46286,7 +46419,7 @@
       <c r="F118" t="s">
         <v>305</v>
       </c>
-      <c r="G118" s="203"/>
+      <c r="G118" s="105"/>
       <c r="I118" s="106">
         <f>I117+1</f>
         <v>15</v>
@@ -46297,16 +46430,16 @@
       <c r="K118" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L118" s="190">
+      <c r="L118" s="109">
         <v>0.20185922082271704</v>
       </c>
-      <c r="M118" s="190">
+      <c r="M118" s="109">
         <v>0.15799115714418163</v>
       </c>
-      <c r="N118" s="190">
+      <c r="N118" s="109">
         <v>0.15057881791994418</v>
       </c>
-      <c r="O118" s="190">
+      <c r="O118" s="109">
         <v>0.13408481226820065</v>
       </c>
       <c r="P118" t="str">
@@ -46336,23 +46469,23 @@
       <c r="F119" t="s">
         <v>304</v>
       </c>
-      <c r="G119" s="203"/>
+      <c r="G119" s="105"/>
       <c r="J119" s="105" t="s">
         <v>122</v>
       </c>
       <c r="K119" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="L119" s="194">
+      <c r="L119" s="114">
         <v>0.11516079668755733</v>
       </c>
-      <c r="M119" s="194">
+      <c r="M119" s="114">
         <v>7.0120249188326933E-2</v>
       </c>
-      <c r="N119" s="194">
+      <c r="N119" s="114">
         <v>6.1354867062609855E-2</v>
       </c>
-      <c r="O119" s="194">
+      <c r="O119" s="114">
         <v>4.1952313368957508E-2</v>
       </c>
       <c r="P119" t="str">
@@ -46386,7 +46519,7 @@
       <c r="F120" t="s">
         <v>305</v>
       </c>
-      <c r="G120" s="203"/>
+      <c r="G120" s="105"/>
       <c r="I120" s="106">
         <f>I118+1</f>
         <v>16</v>
@@ -46397,16 +46530,16 @@
       <c r="K120" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L120" s="189">
+      <c r="L120" s="108">
         <v>-27.98809240828421</v>
       </c>
-      <c r="M120" s="189">
+      <c r="M120" s="108">
         <v>-15.91975347340918</v>
       </c>
-      <c r="N120" s="189">
+      <c r="N120" s="108">
         <v>-14.356750997564728</v>
       </c>
-      <c r="O120" s="189">
+      <c r="O120" s="108">
         <v>-11.177963008326927</v>
       </c>
       <c r="P120" t="str">
@@ -46436,23 +46569,23 @@
       <c r="F121" t="s">
         <v>304</v>
       </c>
-      <c r="G121" s="203"/>
+      <c r="G121" s="105"/>
       <c r="J121" s="105" t="s">
         <v>120</v>
       </c>
       <c r="K121" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L121" s="189">
+      <c r="L121" s="108">
         <v>-17.361246158564047</v>
       </c>
-      <c r="M121" s="189">
+      <c r="M121" s="108">
         <v>-7.732349579903917</v>
       </c>
-      <c r="N121" s="189">
+      <c r="N121" s="108">
         <v>-6.4293899601748947</v>
       </c>
-      <c r="O121" s="189">
+      <c r="O121" s="108">
         <v>-3.99354947590454</v>
       </c>
       <c r="P121" t="str">
@@ -46479,23 +46612,23 @@
       <c r="E122" s="109">
         <v>-30.038888888888888</v>
       </c>
-      <c r="G122" s="203"/>
+      <c r="G122" s="105"/>
       <c r="J122" s="105" t="s">
         <v>352</v>
       </c>
       <c r="K122" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="L122" s="190">
+      <c r="L122" s="109">
         <v>-30.038888888888888</v>
       </c>
-      <c r="M122" s="190">
+      <c r="M122" s="109">
         <v>-30.038888888888888</v>
       </c>
-      <c r="N122" s="190">
+      <c r="N122" s="109">
         <v>-30.038888888888888</v>
       </c>
-      <c r="O122" s="190">
+      <c r="O122" s="109">
         <v>-30.038888888888888</v>
       </c>
       <c r="U122" s="144">
@@ -46521,23 +46654,23 @@
       <c r="F123" s="142" t="s">
         <v>351</v>
       </c>
-      <c r="G123" s="206"/>
+      <c r="G123" s="175"/>
       <c r="J123" s="167" t="s">
         <v>350</v>
       </c>
       <c r="K123" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L123" s="200">
-        <v>0</v>
-      </c>
-      <c r="M123" s="200">
-        <v>0</v>
-      </c>
-      <c r="N123" s="200">
-        <v>0</v>
-      </c>
-      <c r="O123" s="200">
+      <c r="L123" s="113">
+        <v>0</v>
+      </c>
+      <c r="M123" s="113">
+        <v>0</v>
+      </c>
+      <c r="N123" s="113">
+        <v>0</v>
+      </c>
+      <c r="O123" s="113">
         <v>0</v>
       </c>
       <c r="P123" s="142" t="s">
@@ -46566,23 +46699,23 @@
       <c r="F124" s="142" t="s">
         <v>351</v>
       </c>
-      <c r="G124" s="206"/>
+      <c r="G124" s="175"/>
       <c r="J124" s="167" t="s">
         <v>349</v>
       </c>
       <c r="K124" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L124" s="190">
+      <c r="L124" s="109">
         <v>-13.793206222084164</v>
       </c>
-      <c r="M124" s="190">
+      <c r="M124" s="109">
         <v>-14.24750481414455</v>
       </c>
-      <c r="N124" s="190">
+      <c r="N124" s="109">
         <v>-14.37297943485456</v>
       </c>
-      <c r="O124" s="190">
+      <c r="O124" s="109">
         <v>-14.459238217697784</v>
       </c>
       <c r="P124" s="142" t="s">
@@ -46611,23 +46744,23 @@
       <c r="F125" s="142" t="s">
         <v>351</v>
       </c>
-      <c r="G125" s="206"/>
+      <c r="G125" s="175"/>
       <c r="J125" s="167" t="s">
         <v>348</v>
       </c>
       <c r="K125" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L125" s="200">
+      <c r="L125" s="113">
         <v>-3.3187478725806674</v>
       </c>
-      <c r="M125" s="200">
+      <c r="M125" s="113">
         <v>-2.3639912976324062</v>
       </c>
-      <c r="N125" s="200">
+      <c r="N125" s="113">
         <v>-2.1884149461375548</v>
       </c>
-      <c r="O125" s="200">
+      <c r="O125" s="113">
         <v>-1.7583334018555716</v>
       </c>
       <c r="P125" s="142" t="s">
@@ -46656,23 +46789,23 @@
       <c r="F126" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="G126" s="206"/>
+      <c r="G126" s="175"/>
       <c r="J126" s="167" t="s">
         <v>350</v>
       </c>
       <c r="K126" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L126" s="200">
+      <c r="L126" s="113">
         <v>2.4508070692032535E-3</v>
       </c>
-      <c r="M126" s="200">
+      <c r="M126" s="113">
         <v>8.4792154359069282E-4</v>
       </c>
-      <c r="N126" s="200">
+      <c r="N126" s="113">
         <v>5.3341800640723728E-4</v>
       </c>
-      <c r="O126" s="200">
+      <c r="O126" s="113">
         <v>6.5409407282147871E-6</v>
       </c>
       <c r="P126" s="142" t="s">
@@ -46701,23 +46834,23 @@
       <c r="F127" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="G127" s="206"/>
+      <c r="G127" s="175"/>
       <c r="J127" s="167" t="s">
         <v>349</v>
       </c>
       <c r="K127" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L127" s="190">
+      <c r="L127" s="109">
         <v>-13.747440745218261</v>
       </c>
-      <c r="M127" s="190">
+      <c r="M127" s="109">
         <v>-14.200231987111444</v>
       </c>
-      <c r="N127" s="190">
+      <c r="N127" s="109">
         <v>-14.325290286499284</v>
       </c>
-      <c r="O127" s="190">
+      <c r="O127" s="109">
         <v>-14.411262865086067</v>
       </c>
       <c r="P127" s="142" t="s">
@@ -46746,23 +46879,23 @@
       <c r="F128" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="G128" s="206"/>
+      <c r="G128" s="175"/>
       <c r="J128" s="167" t="s">
         <v>348</v>
       </c>
       <c r="K128" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L128" s="200">
+      <c r="L128" s="113">
         <v>-3.3072317929119115</v>
       </c>
-      <c r="M128" s="200">
+      <c r="M128" s="113">
         <v>-2.3569792727135734</v>
       </c>
-      <c r="N128" s="200">
+      <c r="N128" s="113">
         <v>-2.1822794594312938</v>
       </c>
-      <c r="O128" s="200">
+      <c r="O128" s="113">
         <v>-1.7541381705186758</v>
       </c>
       <c r="P128" s="142" t="s">
@@ -46788,23 +46921,23 @@
       <c r="E129" s="113">
         <v>-3.3737458255359489</v>
       </c>
-      <c r="G129" s="206"/>
+      <c r="G129" s="175"/>
       <c r="J129" s="167" t="s">
         <v>346</v>
       </c>
       <c r="K129" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L129" s="189">
+      <c r="L129" s="108">
         <v>-3.3737458255359489</v>
       </c>
-      <c r="M129" s="189">
+      <c r="M129" s="108">
         <v>-3.8240586235137974</v>
       </c>
-      <c r="N129" s="189">
+      <c r="N129" s="108">
         <v>-3.9484323911516763</v>
       </c>
-      <c r="O129" s="189">
+      <c r="O129" s="108">
         <v>-4.0339343815411448</v>
       </c>
       <c r="U129" s="144">
@@ -46827,23 +46960,23 @@
       <c r="E130" s="113">
         <v>586.96166557122535</v>
       </c>
-      <c r="G130" s="206"/>
+      <c r="G130" s="175"/>
       <c r="J130" s="167" t="s">
         <v>345</v>
       </c>
       <c r="K130" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L130" s="189">
+      <c r="L130" s="108">
         <v>586.96166557122535</v>
       </c>
-      <c r="M130" s="189">
+      <c r="M130" s="108">
         <v>599.41981759579619</v>
       </c>
-      <c r="N130" s="189">
+      <c r="N130" s="108">
         <v>601.46161419442979</v>
       </c>
-      <c r="O130" s="189">
+      <c r="O130" s="108">
         <v>605.81085848766156</v>
       </c>
       <c r="U130" s="144">
@@ -46866,23 +46999,23 @@
       <c r="E131" s="113">
         <v>16.933101559822063</v>
       </c>
-      <c r="G131" s="206"/>
+      <c r="G131" s="175"/>
       <c r="J131" s="167" t="s">
         <v>344</v>
       </c>
       <c r="K131" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L131" s="189">
+      <c r="L131" s="108">
         <v>18.316987621897358</v>
       </c>
-      <c r="M131" s="189">
+      <c r="M131" s="108">
         <v>12.801299162245762</v>
       </c>
-      <c r="N131" s="189">
+      <c r="N131" s="108">
         <v>11.925528639094075</v>
       </c>
-      <c r="O131" s="189">
+      <c r="O131" s="108">
         <v>10.292730627851538</v>
       </c>
       <c r="U131" s="144">
@@ -46905,20 +47038,20 @@
       <c r="F132" t="s">
         <v>337</v>
       </c>
-      <c r="G132" s="205"/>
+      <c r="G132" s="112"/>
       <c r="J132" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="L132" s="199">
+      <c r="L132" s="135">
         <v>1.1341130640163486E-3</v>
       </c>
-      <c r="M132" s="199">
+      <c r="M132" s="135">
         <v>1.1281973537592537E-3</v>
       </c>
-      <c r="N132" s="199">
+      <c r="N132" s="135">
         <v>1.1610813046004538E-3</v>
       </c>
-      <c r="O132" s="199">
+      <c r="O132" s="135">
         <v>1.1242203457511812E-3</v>
       </c>
       <c r="P132" t="s">
@@ -46944,20 +47077,20 @@
       <c r="F133" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="205"/>
+      <c r="G133" s="112"/>
       <c r="J133" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="L133" s="199">
+      <c r="L133" s="135">
         <v>0.27010762476548178</v>
       </c>
-      <c r="M133" s="199">
+      <c r="M133" s="135">
         <v>0.22588356678936772</v>
       </c>
-      <c r="N133" s="199">
+      <c r="N133" s="135">
         <v>0.22045011065026829</v>
       </c>
-      <c r="O133" s="199">
+      <c r="O133" s="135">
         <v>0.20173789440913817</v>
       </c>
       <c r="P133" t="s">
@@ -46983,20 +47116,20 @@
       <c r="F134" t="s">
         <v>339</v>
       </c>
-      <c r="G134" s="205"/>
+      <c r="G134" s="112"/>
       <c r="J134" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="L134" s="199">
+      <c r="L134" s="135">
         <v>3.7368232883165717</v>
       </c>
-      <c r="M134" s="199">
+      <c r="M134" s="135">
         <v>1.9590200717127004</v>
       </c>
-      <c r="N134" s="199">
+      <c r="N134" s="135">
         <v>1.6410177501994951</v>
       </c>
-      <c r="O134" s="199">
+      <c r="O134" s="135">
         <v>1.025033102327626</v>
       </c>
       <c r="P134" t="s">
@@ -47014,12 +47147,12 @@
     </row>
     <row r="135" spans="3:23">
       <c r="C135" s="112"/>
-      <c r="G135" s="205"/>
+      <c r="G135" s="112"/>
       <c r="J135" s="112"/>
-      <c r="L135" s="197"/>
-      <c r="M135" s="197"/>
-      <c r="N135" s="197"/>
-      <c r="O135" s="197"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="112"/>
+      <c r="N135" s="112"/>
+      <c r="O135" s="112"/>
       <c r="U135" s="144">
         <v>20036.767356</v>
       </c>
@@ -47041,21 +47174,21 @@
       <c r="F136" t="s">
         <v>340</v>
       </c>
-      <c r="G136" s="202"/>
+      <c r="G136" s="103"/>
       <c r="J136" s="103" t="s">
         <v>91</v>
       </c>
       <c r="K136" s="166"/>
-      <c r="L136" s="190">
+      <c r="L136" s="109">
         <v>0.39069004982520333</v>
       </c>
-      <c r="M136" s="190">
+      <c r="M136" s="109">
         <v>0.25969671674719436</v>
       </c>
-      <c r="N136" s="190">
+      <c r="N136" s="109">
         <v>0.27242757706494314</v>
       </c>
-      <c r="O136" s="190">
+      <c r="O136" s="109">
         <v>0.20429410419425867</v>
       </c>
       <c r="P136" t="s">
@@ -59036,11 +59169,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59297,27 +59431,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59342,9 +59466,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>